--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.44</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.48</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -694,37 +694,37 @@
         <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>16.5</v>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
@@ -751,7 +751,7 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
@@ -835,7 +835,7 @@
         <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="I8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.52</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>2.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J9" t="n">
         <v>3.8</v>
@@ -1642,7 +1642,7 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
         <v>1.71</v>
@@ -1678,13 +1678,13 @@
         <v>28</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -1696,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
         <v>32</v>
@@ -1816,7 +1816,7 @@
         <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
         <v>14</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -673,10 +673,10 @@
         <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -685,7 +685,7 @@
         <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,13 +697,13 @@
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
         <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
@@ -715,34 +715,34 @@
         <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W2" t="n">
         <v>1.44</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
         <v>23</v>
@@ -754,10 +754,10 @@
         <v>17.5</v>
       </c>
       <c r="AI2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>55</v>
       </c>
       <c r="AK2" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="G5" t="n">
-        <v>85</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="I5" t="n">
-        <v>85</v>
+        <v>2.68</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>2.46</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
         <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
         <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
         <v>1.9</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.4</v>
+        <v>1.25</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="I8" t="n">
-        <v>1.51</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.59</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
@@ -1654,7 +1654,7 @@
         <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>2.5</v>
@@ -1702,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
         <v>38</v>
@@ -1750,7 +1750,7 @@
         <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
         <v>2.58</v>
@@ -1759,10 +1759,10 @@
         <v>2.62</v>
       </c>
       <c r="J10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.98</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I2" t="n">
         <v>2.46</v>
@@ -682,34 +682,34 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
         <v>2.18</v>
@@ -718,25 +718,25 @@
         <v>1.68</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
@@ -757,22 +757,22 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
         <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>5.2</v>
@@ -1222,7 +1222,7 @@
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>7.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1.51</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
@@ -1654,7 +1654,7 @@
         <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
         <v>2.5</v>
@@ -1750,19 +1750,19 @@
         <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>14</v>
@@ -1828,7 +1828,7 @@
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -700,7 +700,7 @@
         <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1.35</v>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="H3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.14</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.68</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>2.82</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.42</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.51</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.55</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,193 +1666,463 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Al-Kholood Club</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Al-Ittihad</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F12" t="n">
         <v>3.6</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="G12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.98</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.17</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>3.3</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.64</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>7</v>
       </c>
-      <c r="Y10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="Y12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
         <v>14</v>
       </c>
-      <c r="AA10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AE12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>32</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI12" t="n">
         <v>90</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AJ12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK12" t="n">
         <v>75</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL12" t="n">
         <v>130</v>
       </c>
-      <c r="AM10" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AM12" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN12" t="n">
         <v>140</v>
       </c>
-      <c r="AO10" t="n">
-        <v>60</v>
+      <c r="AO12" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.27</v>
@@ -826,34 +826,34 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -970,7 +970,7 @@
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
         <v>1.42</v>
@@ -997,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
         <v>110</v>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1132,7 +1132,7 @@
         <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>400</v>
@@ -1174,7 +1174,7 @@
         <v>380</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>470</v>
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P6" t="n">
         <v>1.45</v>
@@ -1249,70 +1249,70 @@
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO6" t="n">
         <v>130</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1351,7 @@
         <v>2.44</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="J7" t="n">
         <v>2.54</v>
@@ -1369,7 +1369,7 @@
         <v>2.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="P7" t="n">
         <v>1.35</v>
@@ -1390,10 +1390,10 @@
         <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
         <v>2.3</v>
@@ -1486,7 +1486,7 @@
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
@@ -1525,7 +1525,7 @@
         <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
         <v>1.78</v>
@@ -1612,118 +1612,118 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G10" t="n">
         <v>7.2</v>
       </c>
-      <c r="G10" t="n">
-        <v>8.6</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,260 +1868,530 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>5.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
         <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
         <v>13</v>
       </c>
-      <c r="Z11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF11" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>29</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Al-Kholood Club</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Al-Ittihad</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="F14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J14" t="n">
         <v>2.98</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M14" t="n">
         <v>1.17</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N14" t="n">
         <v>0</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>3.3</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R14" t="n">
         <v>0</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W14" t="n">
         <v>0</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X14" t="n">
         <v>7</v>
       </c>
-      <c r="Y12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="Y14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA14" t="n">
         <v>44</v>
       </c>
-      <c r="AB12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AB14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD14" t="n">
         <v>14</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE14" t="n">
         <v>44</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF14" t="n">
         <v>23</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH14" t="n">
         <v>32</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI14" t="n">
         <v>90</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AJ14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK14" t="n">
         <v>75</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL14" t="n">
         <v>130</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM14" t="n">
         <v>370</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN14" t="n">
         <v>140</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO14" t="n">
         <v>55</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
         <v>2.46</v>
@@ -691,19 +691,19 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>3.55</v>
@@ -712,7 +712,7 @@
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.68</v>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
         <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -970,7 +970,7 @@
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
         <v>1.42</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="O5" t="n">
         <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R5" t="n">
         <v>1.19</v>
@@ -1114,52 +1114,52 @@
         <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="U5" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="AB5" t="n">
         <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
@@ -1171,13 +1171,13 @@
         <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AN5" t="n">
         <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.61</v>
@@ -1234,13 +1234,13 @@
         <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
         <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="R6" t="n">
         <v>1.15</v>
@@ -1249,31 +1249,31 @@
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
         <v>7.4</v>
@@ -1282,10 +1282,10 @@
         <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13.5</v>
@@ -1294,10 +1294,10 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
         <v>44</v>
@@ -1306,13 +1306,13 @@
         <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="K7" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
         <v>1.64</v>
@@ -1366,19 +1366,19 @@
         <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="O7" t="n">
         <v>1.64</v>
       </c>
       <c r="P7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="S7" t="n">
         <v>6.6</v>
@@ -1387,13 +1387,13 @@
         <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1405,49 +1405,49 @@
         <v>980</v>
       </c>
       <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
         <v>50</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1507,7 +1507,7 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
         <v>1.94</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
         <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.44</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>1.55</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
         <v>980</v>
@@ -1696,7 +1696,7 @@
         <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J10" t="n">
         <v>3.9</v>
@@ -1771,13 +1771,13 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
@@ -1885,7 +1885,7 @@
         <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
@@ -1894,7 +1894,7 @@
         <v>5.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1924,16 +1924,16 @@
         <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.19</v>
@@ -2053,82 +2053,82 @@
         <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
         <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W12" t="n">
         <v>1.13</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,260 +2138,1610 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.55</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K15" t="n">
+        <v>980</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>980</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I17" t="n">
+        <v>980</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>980</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K18" t="n">
+        <v>980</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Audace Cerignola</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Potenza</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sporting Gijon</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ross Co</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Partick</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F24" t="n">
         <v>3.65</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G24" t="n">
         <v>3.75</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H24" t="n">
         <v>2.5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I24" t="n">
         <v>2.54</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J24" t="n">
         <v>2.98</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M24" t="n">
         <v>1.17</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N24" t="n">
         <v>0</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P24" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q24" t="n">
         <v>3.3</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R24" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="T24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.63</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W24" t="n">
         <v>0</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
         <v>7</v>
       </c>
-      <c r="Y14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AD24" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AE24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI24" t="n">
         <v>90</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AJ24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK24" t="n">
         <v>75</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN24" t="n">
         <v>130</v>
       </c>
-      <c r="AM14" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AO24" t="n">
         <v>55</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -670,10 +670,10 @@
         <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I2" t="n">
         <v>2.46</v>
@@ -694,7 +694,7 @@
         <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
         <v>1.92</v>
@@ -715,16 +715,16 @@
         <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
         <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
@@ -769,7 +769,7 @@
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -808,7 +808,7 @@
         <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>5.7</v>
@@ -820,25 +820,25 @@
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
         <v>2.52</v>
@@ -895,7 +895,7 @@
         <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
@@ -979,7 +979,7 @@
         <v>2.94</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
@@ -988,22 +988,22 @@
         <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1015,7 +1015,7 @@
         <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
@@ -1027,7 +1027,7 @@
         <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>24</v>
@@ -1042,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1117,7 +1117,7 @@
         <v>2.34</v>
       </c>
       <c r="U5" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
@@ -1126,7 +1126,7 @@
         <v>2.22</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>21</v>
@@ -1141,16 +1141,16 @@
         <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
         <v>190</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
         <v>350</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
         <v>2.82</v>
@@ -1264,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>25</v>
@@ -1279,13 +1279,13 @@
         <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
         <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
         <v>13.5</v>
@@ -1348,7 +1348,7 @@
         <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I7" t="n">
         <v>2.32</v>
@@ -1390,34 +1390,34 @@
         <v>1.56</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W7" t="n">
         <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,34 +1501,34 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
         <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1537,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1555,7 +1555,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
@@ -1567,19 +1567,19 @@
         <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1621,7 +1621,7 @@
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
         <v>2.7</v>
@@ -1633,10 +1633,10 @@
         <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
         <v>1.68</v>
@@ -1663,13 +1663,13 @@
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
@@ -1690,13 +1690,13 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J10" t="n">
         <v>3.9</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
@@ -1900,7 +1900,7 @@
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1942,7 +1942,7 @@
         <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1978,7 +1978,7 @@
         <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2059,7 +2059,7 @@
         <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
         <v>3.7</v>
@@ -2977,7 +2977,7 @@
         <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -2992,7 +2992,7 @@
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
         <v>1.71</v>
@@ -3010,16 +3010,16 @@
         <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3037,7 +3037,7 @@
         <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>28</v>
@@ -3052,16 +3052,16 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
         <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
         <v>28</v>
@@ -3199,7 +3199,7 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
         <v>80</v>
@@ -3235,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -3259,13 +3259,13 @@
         <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="P21" t="n">
         <v>1.32</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
@@ -3283,7 +3283,7 @@
         <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
         <v>2.76</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3.45</v>
@@ -3382,7 +3382,7 @@
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3424,10 +3424,10 @@
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
         <v>75</v>
@@ -3436,13 +3436,13 @@
         <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3451,7 +3451,7 @@
         <v>18</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>75</v>
@@ -3505,13 +3505,13 @@
         <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>2.14</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
@@ -3520,7 +3520,7 @@
         <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3544,16 +3544,16 @@
         <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="W23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
         <v>18</v>
@@ -3586,7 +3586,7 @@
         <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I24" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J24" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
         <v>22</v>
@@ -3736,7 +3736,7 @@
         <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN24" t="n">
         <v>130</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.25</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
         <v>2.46</v>
@@ -694,13 +694,13 @@
         <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.36</v>
@@ -712,13 +712,13 @@
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -769,7 +769,7 @@
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -955,7 +955,7 @@
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -994,7 +994,7 @@
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>42</v>
@@ -1006,40 +1006,40 @@
         <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>65</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G5" t="n">
         <v>1.81</v>
@@ -1087,10 +1087,10 @@
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1102,7 +1102,7 @@
         <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" t="n">
         <v>2.58</v>
@@ -1141,7 +1141,7 @@
         <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>30</v>
@@ -1219,10 +1219,10 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
         <v>1.61</v>
@@ -1255,10 +1255,10 @@
         <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
         <v>9</v>
@@ -1348,19 +1348,19 @@
         <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
         <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K7" t="n">
         <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M7" t="n">
         <v>1.15</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1480,13 +1480,13 @@
         <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
@@ -1495,10 +1495,10 @@
         <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.25</v>
@@ -1513,73 +1513,73 @@
         <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,37 +1615,37 @@
         <v>1.98</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>6.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
         <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
@@ -1654,16 +1654,16 @@
         <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1765,13 +1765,13 @@
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.08</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
@@ -1783,16 +1783,16 @@
         <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>2.26</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
         <v>2.06</v>
@@ -1891,7 +1891,7 @@
         <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1900,43 +1900,43 @@
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.97</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
         <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W11" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>980</v>
@@ -1948,31 +1948,31 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
         <v>980</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2035,7 +2035,7 @@
         <v>5.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2053,13 +2053,13 @@
         <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
@@ -2083,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
         <v>12.5</v>
@@ -2980,7 +2980,7 @@
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2998,7 +2998,7 @@
         <v>1.71</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
         <v>2.74</v>
@@ -3136,7 +3136,7 @@
         <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T20" t="n">
         <v>1.89</v>
@@ -3169,7 +3169,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>65</v>
@@ -3241,7 +3241,7 @@
         <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
         <v>2.78</v>
@@ -3259,7 +3259,7 @@
         <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
         <v>1.32</v>
@@ -3385,13 +3385,13 @@
         <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>1.61</v>
+        <v>2.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.48</v>
@@ -3403,76 +3403,76 @@
         <v>2.38</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
         <v>1.56</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>75</v>
       </c>
       <c r="AJ22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL22" t="n">
         <v>60</v>
       </c>
-      <c r="AK22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>80</v>
-      </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3505,13 +3505,13 @@
         <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H23" t="n">
         <v>2.14</v>
       </c>
       <c r="I23" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
@@ -3520,10 +3520,10 @@
         <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>3.6</v>
@@ -3535,7 +3535,7 @@
         <v>1.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
         <v>1.35</v>
@@ -3550,7 +3550,7 @@
         <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="W23" t="n">
         <v>1.36</v>
@@ -3646,13 +3646,13 @@
         <v>2.54</v>
       </c>
       <c r="I24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J24" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K24" t="n">
         <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.05</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>6.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z24" t="n">
         <v>13</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -706,7 +706,7 @@
         <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
@@ -754,7 +754,7 @@
         <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>55</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -946,13 +946,13 @@
         <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -976,10 +976,10 @@
         <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
@@ -1090,10 +1090,10 @@
         <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
         <v>2.54</v>
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>60</v>
@@ -1141,7 +1141,7 @@
         <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>30</v>
@@ -1150,7 +1150,7 @@
         <v>190</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1162,10 +1162,10 @@
         <v>210</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>70</v>
@@ -1261,7 +1261,7 @@
         <v>1.55</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>10.5</v>
@@ -1297,7 +1297,7 @@
         <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK6" t="n">
         <v>44</v>
@@ -1309,7 +1309,7 @@
         <v>270</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
         <v>110</v>
@@ -1480,10 +1480,10 @@
         <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -1528,7 +1528,7 @@
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
         <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -1660,10 +1660,10 @@
         <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1759,7 +1759,7 @@
         <v>1.79</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1930,16 +1930,16 @@
         <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
@@ -1954,16 +1954,16 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -1972,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
         <v>980</v>
@@ -2020,13 +2020,13 @@
         <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="H12" t="n">
         <v>1.42</v>
       </c>
       <c r="I12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
         <v>4.8</v>
@@ -2035,52 +2035,52 @@
         <v>5.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="W12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
@@ -2098,13 +2098,13 @@
         <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>270</v>
@@ -3016,7 +3016,7 @@
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
         <v>12.5</v>
@@ -3049,7 +3049,7 @@
         <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
         <v>70</v>
@@ -3058,7 +3058,7 @@
         <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.45</v>
@@ -3259,13 +3259,13 @@
         <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
         <v>1.32</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3376,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3415,7 +3415,7 @@
         <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W22" t="n">
         <v>1.56</v>
@@ -3442,7 +3442,7 @@
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF22" t="n">
         <v>17.5</v>
@@ -3454,7 +3454,7 @@
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
         <v>980</v>
@@ -3466,10 +3466,10 @@
         <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
         <v>65</v>
@@ -3505,7 +3505,7 @@
         <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
         <v>2.14</v>
@@ -3535,7 +3535,7 @@
         <v>1.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
         <v>1.35</v>
@@ -3553,7 +3553,7 @@
         <v>1.71</v>
       </c>
       <c r="W23" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="X23" t="n">
         <v>18</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
         <v>9.800000000000001</v>
@@ -3577,10 +3577,10 @@
         <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
         <v>18</v>
@@ -3589,7 +3589,7 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3670,7 +3670,7 @@
         <v>1.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>44</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.44</v>
@@ -685,43 +685,43 @@
         <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
         <v>1.68</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
@@ -742,7 +742,7 @@
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -769,7 +769,7 @@
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -823,13 +823,13 @@
         <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
         <v>2.14</v>
@@ -844,7 +844,7 @@
         <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
         <v>2.14</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
         <v>1.99</v>
@@ -946,7 +946,7 @@
         <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -979,7 +979,7 @@
         <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
@@ -997,10 +997,10 @@
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="n">
         <v>12</v>
@@ -1012,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>38</v>
@@ -1042,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
         <v>1.81</v>
@@ -1081,13 +1081,13 @@
         <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
@@ -1096,7 +1096,7 @@
         <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O5" t="n">
         <v>1.52</v>
@@ -1105,7 +1105,7 @@
         <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R5" t="n">
         <v>1.19</v>
@@ -1114,7 +1114,7 @@
         <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
         <v>1.64</v>
@@ -1123,10 +1123,10 @@
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -1138,28 +1138,28 @@
         <v>330</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="n">
         <v>190</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
         <v>20</v>
@@ -1171,13 +1171,13 @@
         <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AN5" t="n">
         <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>2.72</v>
@@ -1231,16 +1231,16 @@
         <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O6" t="n">
         <v>1.59</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
         <v>1.15</v>
@@ -1255,13 +1255,13 @@
         <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y6" t="n">
         <v>10.5</v>
@@ -1288,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1351,16 +1351,16 @@
         <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
         <v>2.66</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M7" t="n">
         <v>1.15</v>
@@ -1375,16 +1375,16 @@
         <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
         <v>6.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U7" t="n">
         <v>1.56</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -1489,13 +1489,13 @@
         <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1504,22 +1504,22 @@
         <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
@@ -1528,7 +1528,7 @@
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
         <v>2.14</v>
@@ -1624,19 +1624,19 @@
         <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1654,13 +1654,13 @@
         <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U9" t="n">
         <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
         <v>1.88</v>
@@ -1753,7 +1753,7 @@
         <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I10" t="n">
         <v>1.79</v>
@@ -1762,7 +1762,7 @@
         <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1780,13 +1780,13 @@
         <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
         <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
         <v>1.79</v>
@@ -1915,7 +1915,7 @@
         <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
@@ -2020,13 +2020,13 @@
         <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>1.42</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J12" t="n">
         <v>4.8</v>
@@ -2035,40 +2035,40 @@
         <v>5.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
         <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="W12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
         <v>29</v>
@@ -2098,13 +2098,13 @@
         <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>270</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3109,7 +3109,7 @@
         <v>4.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K20" t="n">
         <v>3.85</v>
@@ -3121,34 +3121,34 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
         <v>3.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
         <v>1.26</v>
       </c>
       <c r="W20" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X20" t="n">
         <v>14</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="G21" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
         <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="L21" t="n">
         <v>1.45</v>
@@ -3259,19 +3259,19 @@
         <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3430,7 +3430,7 @@
         <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB22" t="n">
         <v>9.199999999999999</v>
@@ -3511,7 +3511,7 @@
         <v>2.14</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
@@ -3526,19 +3526,19 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q23" t="n">
         <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S23" t="n">
         <v>3.25</v>
@@ -3547,10 +3547,10 @@
         <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
         <v>1.31</v>
@@ -3670,7 +3670,7 @@
         <v>1.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3743,6 +3743,141 @@
       </c>
       <c r="AO24" t="n">
         <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -685,19 +685,19 @@
         <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -709,16 +709,16 @@
         <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -742,7 +742,7 @@
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -772,7 +772,7 @@
         <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
@@ -841,13 +841,13 @@
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T3" t="n">
         <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
@@ -871,7 +871,7 @@
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
         <v>1.99</v>
@@ -970,16 +970,16 @@
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
@@ -1003,7 +1003,7 @@
         <v>110</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>38</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
         <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1090,31 +1090,31 @@
         <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="R5" t="n">
         <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.64</v>
@@ -1123,31 +1123,31 @@
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
         <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF5" t="n">
         <v>9</v>
@@ -1156,28 +1156,28 @@
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
         <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>3.9</v>
@@ -1225,55 +1225,55 @@
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.61</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.14</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.15</v>
-      </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
         <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB6" t="n">
         <v>7.8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
         <v>7.4</v>
@@ -1285,34 +1285,34 @@
         <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1345,22 +1345,22 @@
         <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="M7" t="n">
         <v>1.15</v>
@@ -1384,16 +1384,16 @@
         <v>6.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -1492,43 +1492,43 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
         <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P9" t="n">
         <v>1.39</v>
@@ -1651,7 +1651,7 @@
         <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
         <v>2.48</v>
@@ -1663,10 +1663,10 @@
         <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1747,94 +1747,94 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="I10" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,34 +1882,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G11" t="n">
         <v>2.04</v>
       </c>
       <c r="H11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.2</v>
       </c>
-      <c r="I11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
         <v>1.98</v>
@@ -1921,22 +1921,22 @@
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
@@ -1948,34 +1948,34 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2023,10 +2023,10 @@
         <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I12" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="J12" t="n">
         <v>4.8</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2050,25 +2050,25 @@
         <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X12" t="n">
         <v>29</v>
@@ -2077,10 +2077,10 @@
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
@@ -2098,7 +2098,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2548,19 +2548,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H16" t="n">
         <v>1.04</v>
@@ -2587,10 +2587,10 @@
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>1.01</v>
@@ -2818,19 +2818,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
         <v>1.04</v>
@@ -2857,10 +2857,10 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
         <v>1.01</v>
@@ -3025,10 +3025,10 @@
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
         <v>8.800000000000001</v>
@@ -3046,7 +3046,7 @@
         <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3067,7 +3067,7 @@
         <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3109,46 +3109,46 @@
         <v>4.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
         <v>1.26</v>
       </c>
       <c r="W20" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X20" t="n">
         <v>14</v>
@@ -3196,10 +3196,10 @@
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
         <v>80</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
         <v>2.94</v>
@@ -3250,70 +3250,70 @@
         <v>3.35</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
         <v>1.63</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
         <v>2.76</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
         <v>3.35</v>
@@ -3382,7 +3382,7 @@
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.53</v>
@@ -3391,13 +3391,13 @@
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="O22" t="n">
         <v>1.48</v>
       </c>
       <c r="P22" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
         <v>2.38</v>
@@ -3406,7 +3406,7 @@
         <v>1.22</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T22" t="n">
         <v>1.96</v>
@@ -3433,7 +3433,7 @@
         <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
         <v>7.6</v>
@@ -3469,7 +3469,7 @@
         <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>65</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -3535,7 +3535,7 @@
         <v>1.89</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
         <v>1.34</v>
@@ -3547,7 +3547,7 @@
         <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
         <v>1.7</v>
@@ -3559,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>18</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,260 +3623,665 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>2.54</v>
+        <v>1.02</v>
       </c>
       <c r="I24" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.3</v>
+        <v>1.28</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T24" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Mazatlan FC</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>FC Juarez</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F28" t="n">
         <v>3.05</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G28" t="n">
         <v>3.45</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="H28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.3</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="K28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.34</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="P28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.15</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T28" t="n">
         <v>1.64</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="U28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.4</v>
       </c>
-      <c r="X25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z28" t="n">
         <v>23</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA28" t="n">
         <v>44</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB28" t="n">
         <v>15</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC28" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AD28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE28" t="n">
         <v>34</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF28" t="n">
         <v>30</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG28" t="n">
         <v>20</v>
       </c>
-      <c r="AH25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI25" t="n">
+      <c r="AH28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL28" t="n">
         <v>65</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.48</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -691,10 +691,10 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
         <v>1.9</v>
@@ -706,22 +706,22 @@
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
@@ -742,7 +742,7 @@
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -772,7 +772,7 @@
         <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -814,10 +814,10 @@
         <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.27</v>
@@ -826,34 +826,34 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -871,7 +871,7 @@
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
@@ -946,7 +946,7 @@
         <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -958,7 +958,7 @@
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
@@ -970,7 +970,7 @@
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
@@ -982,7 +982,7 @@
         <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
         <v>1.26</v>
@@ -994,46 +994,46 @@
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
         <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>110</v>
@@ -1042,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
         <v>6.2</v>
@@ -1096,7 +1096,7 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1111,7 +1111,7 @@
         <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.3</v>
@@ -1120,13 +1120,13 @@
         <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X5" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>16.5</v>
@@ -1168,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
         <v>330</v>
@@ -1210,7 +1210,7 @@
         <v>2.52</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1237,16 +1237,16 @@
         <v>1.61</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
         <v>2.18</v>
@@ -1258,7 +1258,7 @@
         <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
         <v>7.6</v>
@@ -1309,7 +1309,7 @@
         <v>300</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1345,43 +1345,43 @@
         <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
         <v>2.14</v>
       </c>
       <c r="O7" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>6.6</v>
+        <v>1.05</v>
       </c>
       <c r="T7" t="n">
         <v>2.5</v>
@@ -1393,7 +1393,7 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.94</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -1492,19 +1492,19 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
         <v>1.8</v>
@@ -1516,7 +1516,7 @@
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
         <v>1.84</v>
@@ -1528,13 +1528,13 @@
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>8.4</v>
@@ -1552,13 +1552,13 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N9" t="n">
         <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P9" t="n">
         <v>1.39</v>
@@ -1651,22 +1651,22 @@
         <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="T9" t="n">
         <v>2.48</v>
       </c>
       <c r="U9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
         <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1771,31 +1771,31 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
         <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
         <v>1.17</v>
@@ -1810,25 +1810,25 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
         <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W11" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
@@ -1948,34 +1948,34 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,19 +2020,19 @@
         <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I12" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="J12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.25</v>
@@ -2047,7 +2047,7 @@
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
         <v>1.6</v>
@@ -2059,34 +2059,34 @@
         <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
         <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>11</v>
@@ -2095,34 +2095,34 @@
         <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="n">
         <v>38</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="AK12" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
         <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J16" t="n">
         <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2590,7 +2590,7 @@
         <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
         <v>1.01</v>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2701,14 +2701,14 @@
         <v>1.04</v>
       </c>
       <c r="I17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K17" t="n">
         <v>980</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1000</v>
-      </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
@@ -2722,10 +2722,10 @@
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
         <v>1.01</v>
@@ -2818,19 +2818,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H18" t="n">
         <v>1.04</v>
@@ -2857,10 +2857,10 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
         <v>1.01</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.65</v>
       </c>
-      <c r="G19" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
         <v>2.16</v>
@@ -2980,19 +2980,19 @@
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
         <v>1.71</v>
@@ -3001,22 +3001,22 @@
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U19" t="n">
         <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
         <v>12.5</v>
@@ -3037,13 +3037,13 @@
         <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF19" t="n">
         <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
@@ -3052,7 +3052,7 @@
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
         <v>36</v>
@@ -3067,7 +3067,7 @@
         <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.96</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.89</v>
-      </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
         <v>980</v>
@@ -3163,19 +3163,19 @@
         <v>120</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
@@ -3184,10 +3184,10 @@
         <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>980</v>
@@ -3196,13 +3196,13 @@
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H21" t="n">
         <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
         <v>2.94</v>
       </c>
       <c r="K21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.46</v>
@@ -3256,7 +3256,7 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -3265,7 +3265,7 @@
         <v>1.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R21" t="n">
         <v>1.2</v>
@@ -3277,22 +3277,22 @@
         <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
@@ -3301,19 +3301,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="G22" t="n">
         <v>2.76</v>
@@ -3376,7 +3376,7 @@
         <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3391,7 +3391,7 @@
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.48</v>
@@ -3400,10 +3400,10 @@
         <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
         <v>4.7</v>
@@ -3415,13 +3415,13 @@
         <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
         <v>1.56</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
         <v>10.5</v>
@@ -3436,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3505,10 +3505,10 @@
         <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="H23" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I23" t="n">
         <v>2.42</v>
@@ -3532,37 +3532,37 @@
         <v>1.3</v>
       </c>
       <c r="P23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
         <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
         <v>1.7</v>
       </c>
       <c r="W23" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3571,13 +3571,13 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
         <v>1000</v>
@@ -3586,7 +3586,7 @@
         <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>44</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3679,10 +3679,10 @@
         <v>1.28</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.01</v>
@@ -3763,12 +3763,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3787,7 +3787,7 @@
         <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3799,25 +3799,25 @@
         <v>1.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="P25" t="n">
         <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
         <v>1.01</v>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3934,25 +3934,25 @@
         <v>1.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
         <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>1.01</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,261 +4028,531 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>2.54</v>
+        <v>1.02</v>
       </c>
       <c r="I27" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T27" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Mazatlan FC</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>FC Juarez</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F30" t="n">
         <v>3.05</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
         <v>3.45</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="O30" t="n">
         <v>1.34</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T28" t="n">
+      <c r="P30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.64</v>
       </c>
-      <c r="U28" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="W30" t="n">
         <v>1.4</v>
       </c>
-      <c r="X28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="X30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
         <v>23</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
         <v>2.44</v>
@@ -679,13 +679,13 @@
         <v>2.46</v>
       </c>
       <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -697,7 +697,7 @@
         <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -706,10 +706,10 @@
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
@@ -718,10 +718,10 @@
         <v>1.68</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
@@ -757,7 +757,7 @@
         <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
         <v>38</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
         <v>4.6</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
         <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,13 +943,13 @@
         <v>1.99</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
@@ -958,7 +958,7 @@
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
@@ -970,13 +970,13 @@
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
         <v>1.72</v>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>18.5</v>
@@ -1024,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1090,37 +1090,37 @@
         <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
         <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
         <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
         <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
         <v>2.24</v>
@@ -1138,7 +1138,7 @@
         <v>320</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
@@ -1168,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>330</v>
@@ -1210,10 +1210,10 @@
         <v>2.52</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>3.9</v>
@@ -1222,43 +1222,43 @@
         <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.15</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>5.4</v>
       </c>
       <c r="T6" t="n">
         <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
         <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>7.6</v>
@@ -1285,31 +1285,31 @@
         <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AN6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O7" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U7" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
         <v>2.06</v>
@@ -1498,16 +1498,16 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1516,10 +1516,10 @@
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>1.97</v>
@@ -1531,10 +1531,10 @@
         <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
@@ -1579,7 +1579,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,58 +1615,58 @@
         <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
         <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
         <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
         <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1747,61 +1747,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="W10" t="n">
         <v>1.17</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>11.5</v>
@@ -1810,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
@@ -1831,7 +1831,7 @@
         <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>40</v>
@@ -1840,7 +1840,7 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1885,55 +1885,55 @@
         <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
         <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1963,7 +1963,7 @@
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -1975,7 +1975,7 @@
         <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,19 +2020,19 @@
         <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="I12" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J12" t="n">
         <v>4.9</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.25</v>
@@ -2041,13 +2041,13 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.6</v>
@@ -2056,28 +2056,28 @@
         <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2086,37 +2086,37 @@
         <v>36</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AK12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
         <v>2.16</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2992,7 +2992,7 @@
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
         <v>1.71</v>
@@ -3010,13 +3010,13 @@
         <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
         <v>12.5</v>
@@ -3037,13 +3037,13 @@
         <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
@@ -3052,7 +3052,7 @@
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
         <v>36</v>
@@ -3064,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
         <v>12</v>
@@ -3097,49 +3097,49 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
         <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="Q20" t="n">
         <v>2.02</v>
       </c>
       <c r="R20" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U20" t="n">
         <v>1.94</v>
@@ -3148,46 +3148,46 @@
         <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
         <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
         <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>980</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>980</v>
@@ -3196,13 +3196,13 @@
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
         <v>2.56</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.46</v>
@@ -3256,67 +3256,67 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
         <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
         <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
         <v>1.64</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
         <v>2.76</v>
@@ -3400,13 +3400,13 @@
         <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R22" t="n">
         <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.96</v>
@@ -3442,7 +3442,7 @@
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
         <v>17.5</v>
@@ -3457,7 +3457,7 @@
         <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK22" t="n">
         <v>980</v>
@@ -3505,7 +3505,7 @@
         <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>2.18</v>
@@ -3523,7 +3523,7 @@
         <v>1.39</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
         <v>3.6</v>
@@ -3532,22 +3532,22 @@
         <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="T23" t="n">
         <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
         <v>1.7</v>
@@ -3571,10 +3571,10 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -4066,13 +4066,13 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q27" t="n">
         <v>1.25</v>
@@ -4081,13 +4081,13 @@
         <v>1.08</v>
       </c>
       <c r="S27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
@@ -4210,7 +4210,7 @@
         <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
@@ -4315,19 +4315,19 @@
         <v>3.6</v>
       </c>
       <c r="G29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
         <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K29" t="n">
         <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.05</v>
       </c>
       <c r="L29" t="n">
         <v>1.7</v>
@@ -4339,7 +4339,7 @@
         <v>2.32</v>
       </c>
       <c r="O29" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
         <v>1.42</v>
@@ -4363,7 +4363,7 @@
         <v>1.63</v>
       </c>
       <c r="W29" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X29" t="n">
         <v>6.6</v>
@@ -4378,7 +4378,7 @@
         <v>40</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
         <v>7</v>
@@ -4387,7 +4387,7 @@
         <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
@@ -4399,7 +4399,7 @@
         <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
         <v>90</v>
@@ -4450,100 +4450,100 @@
         <v>3.05</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I30" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="J30" t="n">
         <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
         <v>120</v>
@@ -4552,7 +4552,7 @@
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -685,46 +685,46 @@
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
@@ -742,7 +742,7 @@
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -751,10 +751,10 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
@@ -763,22 +763,22 @@
         <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
         <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
         <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
         <v>60</v>
       </c>
-      <c r="AA5" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>200</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.52</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.8</v>
-      </c>
       <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.15</v>
       </c>
-      <c r="S6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="X6" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
         <v>2.28</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.16</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S7" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.59</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>980</v>
       </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AK7" t="n">
         <v>980</v>
       </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>2.26</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="W8" t="n">
-        <v>1.94</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
         <v>980</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
         <v>980</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
         <v>980</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,78 +1598,78 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.46</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>2.74</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>2.18</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>2.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>6.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>2.32</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>6.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>1.74</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.98</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.2</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>9.4</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>1.43</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.45</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>3.2</v>
+        <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.12</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>11</v>
       </c>
-      <c r="AE12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
         <v>980</v>
       </c>
-      <c r="AH12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>110</v>
-      </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.06</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2317,10 +2317,10 @@
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>1.01</v>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2437,7 +2437,7 @@
         <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2566,13 +2566,13 @@
         <v>1.04</v>
       </c>
       <c r="I16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K16" t="n">
         <v>980</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2590,7 +2590,7 @@
         <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>1.01</v>
@@ -2683,19 +2683,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H17" t="n">
         <v>1.04</v>
@@ -2722,10 +2722,10 @@
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>1.01</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
         <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J18" t="n">
         <v>1.01</v>
       </c>
       <c r="K18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2860,7 +2860,7 @@
         <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R18" t="n">
         <v>1.01</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="S19" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.86</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD20" t="n">
-        <v>970</v>
-      </c>
       <c r="AE20" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="AF20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>970</v>
-      </c>
       <c r="AI20" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.56</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.76</v>
-      </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P22" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="V22" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
         <v>15</v>
       </c>
-      <c r="AE22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>2.76</v>
       </c>
       <c r="H23" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>2.98</v>
+        <v>4.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
         <v>980</v>
       </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,67 +3628,67 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.02</v>
+        <v>2.18</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.28</v>
+        <v>1.89</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>1.28</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3763,67 +3763,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="H25" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3898,67 +3898,67 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M26" t="n">
         <v>1.02</v>
       </c>
-      <c r="G26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N26" t="n">
-        <v>1.25</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>2.78</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3985,10 +3985,10 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.02</v>
+        <v>1.98</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="H27" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="R27" t="n">
-        <v>1.08</v>
+        <v>1.39</v>
       </c>
       <c r="S27" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
         <v>1.04</v>
@@ -4090,10 +4090,10 @@
         <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>1.02</v>
+        <v>2.22</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>2.44</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>2.14</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33</v>
+        <v>2.44</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,123 +4298,123 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.6</v>
+        <v>1.94</v>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.56</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="J29" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S29" t="n">
         <v>3</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S29" t="n">
-        <v>7.4</v>
-      </c>
       <c r="T29" t="n">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.6</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>22</v>
-      </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AN29" t="n">
-        <v>130</v>
+        <v>13.5</v>
       </c>
       <c r="AO29" t="n">
         <v>55</v>
@@ -4423,136 +4423,271 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Mazatlan FC</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>FC Juarez</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F31" t="n">
         <v>3.05</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G31" t="n">
         <v>3.4</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="H31" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.3</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K31" t="n">
         <v>3.7</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>1.35</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M31" t="n">
         <v>1.07</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N31" t="n">
         <v>3.5</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O31" t="n">
         <v>1.34</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="Q31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.32</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S31" t="n">
         <v>3.5</v>
       </c>
-      <c r="T30" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="T31" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U31" t="n">
         <v>2.06</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="V31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.41</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X31" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA30" t="n">
+      <c r="Y31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
         <v>42</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB31" t="n">
         <v>15</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC31" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AD31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="n">
         <v>34</v>
       </c>
-      <c r="AF30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG30" t="n">
+      <c r="AF31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG31" t="n">
         <v>17</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH31" t="n">
         <v>22</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI31" t="n">
         <v>55</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ31" t="n">
         <v>70</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK31" t="n">
         <v>48</v>
       </c>
-      <c r="AL30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM30" t="n">
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
         <v>120</v>
       </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>28</v>
+      <c r="AN31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="I2" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
@@ -694,10 +694,10 @@
         <v>3.65</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
         <v>2.06</v>
@@ -709,31 +709,31 @@
         <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -742,13 +742,13 @@
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
@@ -757,22 +757,22 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
         <v>2.48</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
         <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.2</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1099,61 +1099,61 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
         <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T5" t="n">
         <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
         <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1162,10 +1162,10 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1174,10 +1174,10 @@
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
         <v>1.8</v>
@@ -1225,7 +1225,7 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="M7" t="n">
         <v>1.15</v>
@@ -1375,25 +1375,25 @@
         <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
       </c>
       <c r="S7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
         <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
         <v>7.6</v>
@@ -1417,7 +1417,7 @@
         <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
         <v>16.5</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J8" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="P8" t="n">
         <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="R8" t="n">
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V8" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X8" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
         <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.85</v>
@@ -1633,37 +1633,37 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
         <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
         <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
         <v>15.5</v>
@@ -1684,25 +1684,25 @@
         <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1714,7 +1714,7 @@
         <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1789,7 +1789,7 @@
         <v>6.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="U10" t="n">
         <v>1.6</v>
@@ -1885,7 +1885,7 @@
         <v>5.5</v>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>1.61</v>
@@ -1897,7 +1897,7 @@
         <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1930,7 +1930,7 @@
         <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W11" t="n">
         <v>1.17</v>
@@ -2029,13 +2029,13 @@
         <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2047,10 +2047,10 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
         <v>1.37</v>
@@ -2098,7 +2098,7 @@
         <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
@@ -2158,7 +2158,7 @@
         <v>9.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="I13" t="n">
         <v>1.45</v>
@@ -2167,10 +2167,10 @@
         <v>4.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2182,22 +2182,22 @@
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
         <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
         <v>3.05</v>
@@ -2215,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
         <v>980</v>
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
         <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J17" t="n">
         <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
         <v>1.01</v>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2836,14 +2836,14 @@
         <v>1.04</v>
       </c>
       <c r="I18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K18" t="n">
         <v>980</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1000</v>
-      </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
@@ -2857,10 +2857,10 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
         <v>1.01</v>
@@ -2953,19 +2953,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H19" t="n">
         <v>1.04</v>
@@ -2992,10 +2992,10 @@
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>1.01</v>
@@ -3112,7 +3112,7 @@
         <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
         <v>1.32</v>
@@ -3142,7 +3142,7 @@
         <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V20" t="n">
         <v>1.86</v>
@@ -3196,7 +3196,7 @@
         <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
         <v>29</v>
@@ -3244,7 +3244,7 @@
         <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
@@ -3379,16 +3379,16 @@
         <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K22" t="n">
         <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
         <v>2.62</v>
@@ -3412,7 +3412,7 @@
         <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
         <v>1.33</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="n">
         <v>2.76</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
         <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L23" t="n">
         <v>1.53</v>
@@ -3532,25 +3532,25 @@
         <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
         <v>1.56</v>
@@ -3568,7 +3568,7 @@
         <v>65</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>6.8</v>
@@ -3655,7 +3655,7 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3682,7 +3682,7 @@
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
         <v>1.7</v>
@@ -3772,58 +3772,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.26</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.18</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W25" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G26" t="n">
         <v>1.33</v>
@@ -3916,40 +3916,40 @@
         <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
       </c>
       <c r="K26" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.19</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
         <v>5.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="n">
         <v>1.9</v>
@@ -3973,7 +3973,7 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
         <v>1000</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="n">
-        <v>2.58</v>
+        <v>2.26</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
         <v>1.54</v>
       </c>
       <c r="R27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T27" t="n">
         <v>1.04</v>
@@ -4090,10 +4090,10 @@
         <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>2.22</v>
+        <v>1.02</v>
       </c>
       <c r="I28" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>1.25</v>
       </c>
       <c r="O28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.24</v>
       </c>
-      <c r="P28" t="n">
-        <v>2.14</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.14</v>
       </c>
       <c r="R28" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>2.44</v>
+        <v>1.14</v>
       </c>
       <c r="T28" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.94</v>
+        <v>2.98</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.7</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="U29" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA29" t="n">
         <v>34</v>
       </c>
-      <c r="AA29" t="n">
-        <v>360</v>
-      </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.65</v>
+        <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
-        <v>2.54</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>2.32</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.3</v>
+        <v>1.76</v>
       </c>
       <c r="R30" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
-        <v>7.4</v>
+        <v>2.92</v>
       </c>
       <c r="T30" t="n">
-        <v>2.48</v>
+        <v>1.65</v>
       </c>
       <c r="U30" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="X30" t="n">
-        <v>6.6</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.6</v>
+        <v>16.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC30" t="n">
-        <v>7</v>
-      </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,125 +4568,260 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J31" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q31" t="n">
         <v>3.3</v>
       </c>
-      <c r="K31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R31" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="U31" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="V31" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W31" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="n">
         <v>14</v>
       </c>
       <c r="AE31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE32" t="n">
         <v>34</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF32" t="n">
         <v>28</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG32" t="n">
         <v>17</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AH32" t="n">
         <v>22</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AI32" t="n">
         <v>55</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AJ32" t="n">
         <v>70</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AK32" t="n">
         <v>48</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AL32" t="n">
         <v>60</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AM32" t="n">
         <v>120</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AN32" t="n">
         <v>48</v>
       </c>
-      <c r="AO31" t="n">
+      <c r="AO32" t="n">
         <v>27</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
         <v>2.36</v>
@@ -724,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
         <v>14.5</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>KFCO Beerschot Wilrijk</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="G3" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.1</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.72</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="n">
         <v>60</v>
       </c>
-      <c r="AA6" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>180</v>
-      </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>19</v>
-      </c>
       <c r="AO6" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>1.69</v>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.15</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.34</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AF7" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>5.7</v>
+        <v>2.66</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.24</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK8" t="n">
         <v>980</v>
       </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2.24</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.37</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>3.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
         <v>980</v>
       </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
         <v>980</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,78 +1733,78 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I10" t="n">
         <v>4.9</v>
       </c>
-      <c r="I10" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.84</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1813,28 +1813,28 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
@@ -1843,13 +1843,13 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.61</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V11" t="n">
-        <v>2.34</v>
+        <v>1.21</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>6.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>5.5</v>
       </c>
       <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.04</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>1.17</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
         <v>21</v>
       </c>
-      <c r="Z12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>75</v>
-      </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.6</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>9.4</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.41</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>3.05</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.12</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
         <v>980</v>
       </c>
-      <c r="AC13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>290</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>110</v>
-      </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>7.6</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>9.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>1.44</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2452,10 +2452,10 @@
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
         <v>1.01</v>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2572,7 +2572,7 @@
         <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2701,13 +2701,13 @@
         <v>1.04</v>
       </c>
       <c r="I17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K17" t="n">
         <v>980</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>1.01</v>
@@ -2818,19 +2818,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H18" t="n">
         <v>1.04</v>
@@ -2857,10 +2857,10 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
         <v>1.01</v>
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
         <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J19" t="n">
         <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2995,7 +2995,7 @@
         <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
         <v>1.01</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.87</v>
+        <v>3.65</v>
       </c>
       <c r="G21" t="n">
-        <v>2.12</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>2.18</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="W21" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AC21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>970</v>
-      </c>
       <c r="AE21" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="AF21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH21" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>970</v>
-      </c>
       <c r="AI21" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.35</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
         <v>15</v>
       </c>
-      <c r="AE23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,120 +3623,120 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.3</v>
       </c>
-      <c r="G24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.42</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.89</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.99</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="V24" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,67 +3763,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.7</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>110</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W25" t="n">
-        <v>2.18</v>
+        <v>1.35</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3841,7 +3841,7 @@
         <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
@@ -3898,55 +3898,55 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="G26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L26" t="n">
         <v>1.33</v>
       </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.19</v>
-      </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>2.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
         <v>1.89</v>
@@ -3955,10 +3955,10 @@
         <v>1.9</v>
       </c>
       <c r="V26" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="W26" t="n">
-        <v>3.8</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3973,7 +3973,7 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
         <v>1000</v>
@@ -3985,10 +3985,10 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4033,67 +4033,67 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.76</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="S27" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.34</v>
-      </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>3.8</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC27" t="n">
         <v>1000</v>
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H28" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,34 +4201,34 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.25</v>
+        <v>2.48</v>
       </c>
       <c r="O28" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.14</v>
+        <v>1.54</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
-        <v>1.14</v>
+        <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4303,103 +4303,103 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.98</v>
+        <v>1.16</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>1.26</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>8.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>32</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>5.9</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>500</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>4.4</v>
+        <v>1.29</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P29" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="R29" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="T29" t="n">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="U29" t="n">
-        <v>2.32</v>
+        <v>1.61</v>
       </c>
       <c r="V29" t="n">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="X29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>3.9</v>
       </c>
       <c r="AO29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.06</v>
+        <v>2.98</v>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>2.38</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>2.66</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P30" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U30" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="W30" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="X30" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH30" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.65</v>
+        <v>1.98</v>
       </c>
       <c r="G31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.7</v>
       </c>
-      <c r="H31" t="n">
-        <v>2.54</v>
-      </c>
       <c r="I31" t="n">
-        <v>2.56</v>
+        <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S31" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S31" t="n">
-        <v>7.4</v>
-      </c>
       <c r="T31" t="n">
-        <v>2.48</v>
+        <v>1.7</v>
       </c>
       <c r="U31" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.37</v>
+        <v>1.86</v>
       </c>
       <c r="X31" t="n">
-        <v>6.6</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AA31" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AB31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC31" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC31" t="n">
-        <v>7</v>
-      </c>
       <c r="AD31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF31" t="n">
         <v>14</v>
       </c>
-      <c r="AE31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF31" t="n">
+      <c r="AG31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK31" t="n">
         <v>22</v>
       </c>
-      <c r="AG31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>75</v>
-      </c>
       <c r="AL31" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,126 +4703,261 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="G32" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="O32" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="P32" t="n">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="S32" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="V32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
         <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AF32" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO32" t="n">
         <v>55</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL32" t="n">
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>60</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AK33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
         <v>120</v>
       </c>
-      <c r="AN32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>27</v>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
         <v>3.5</v>
@@ -691,28 +691,28 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
         <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.73</v>
@@ -739,7 +739,7 @@
         <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>25</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
         <v>2.42</v>
@@ -1078,7 +1078,7 @@
         <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -1087,37 +1087,37 @@
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
         <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>970</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>4</v>
@@ -1240,7 +1240,7 @@
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
@@ -1249,25 +1249,25 @@
         <v>2.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="n">
         <v>120</v>
@@ -1276,31 +1276,31 @@
         <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
@@ -1312,7 +1312,7 @@
         <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1384,7 +1384,7 @@
         <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U7" t="n">
         <v>1.64</v>
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>36</v>
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>70</v>
@@ -1495,7 +1495,7 @@
         <v>3.05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
@@ -1615,10 +1615,10 @@
         <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I9" t="n">
         <v>2.24</v>
@@ -1636,10 +1636,10 @@
         <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P9" t="n">
         <v>1.37</v>
@@ -1654,10 +1654,10 @@
         <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V9" t="n">
         <v>1.8</v>
@@ -1669,7 +1669,7 @@
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
         <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.31</v>
@@ -1789,22 +1789,22 @@
         <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="X10" t="n">
         <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>21</v>
@@ -1825,7 +1825,7 @@
         <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>970</v>
@@ -1834,10 +1834,10 @@
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
@@ -1849,10 +1849,10 @@
         <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -2023,10 +2023,10 @@
         <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2056,7 +2056,7 @@
         <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
@@ -2065,19 +2065,19 @@
         <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
         <v>1.17</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
         <v>20</v>
@@ -2086,7 +2086,7 @@
         <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>12</v>
@@ -2101,7 +2101,7 @@
         <v>28</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
         <v>1.97</v>
@@ -2164,28 +2164,28 @@
         <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
         <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>1.41</v>
@@ -2200,7 +2200,7 @@
         <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
         <v>2.02</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G14" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
         <v>1.44</v>
       </c>
       <c r="I14" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="J14" t="n">
         <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2314,49 +2314,49 @@
         <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
         <v>2.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2365,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="n">
         <v>980</v>
@@ -2377,22 +2377,22 @@
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AK14" t="n">
         <v>140</v>
       </c>
       <c r="AL14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="15">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I21" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J21" t="n">
         <v>3.8</v>
@@ -3265,13 +3265,13 @@
         <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
         <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T21" t="n">
         <v>1.64</v>
@@ -3280,10 +3280,10 @@
         <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
         <v>18</v>
@@ -3325,13 +3325,13 @@
         <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
         <v>29</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
         <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3403,7 +3403,7 @@
         <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
         <v>3.75</v>
@@ -3415,10 +3415,10 @@
         <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X22" t="n">
         <v>14</v>
@@ -3433,10 +3433,10 @@
         <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>970</v>
@@ -3460,7 +3460,7 @@
         <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
         <v>980</v>
@@ -3505,16 +3505,16 @@
         <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
         <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>3.35</v>
@@ -3529,13 +3529,13 @@
         <v>2.62</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
         <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
@@ -3547,10 +3547,10 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
         <v>1.64</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
         <v>2.76</v>
@@ -3646,13 +3646,13 @@
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
         <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.53</v>
@@ -3661,16 +3661,16 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
         <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R24" t="n">
         <v>1.22</v>
@@ -3679,13 +3679,13 @@
         <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
         <v>1.56</v>
@@ -3706,13 +3706,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
         <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
         <v>17.5</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="H25" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I25" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.39</v>
@@ -3796,13 +3796,13 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
         <v>1.89</v>
@@ -3814,22 +3814,22 @@
         <v>3.3</v>
       </c>
       <c r="T25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.73</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>1.65</v>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
@@ -3919,7 +3919,7 @@
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>5.2</v>
@@ -3931,7 +3931,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
@@ -3940,7 +3940,7 @@
         <v>1.87</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
         <v>1.34</v>
@@ -3958,7 +3958,7 @@
         <v>1.18</v>
       </c>
       <c r="W26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4063,10 +4063,10 @@
         <v>1.19</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.14</v>
@@ -4084,7 +4084,7 @@
         <v>2.06</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
         <v>1.91</v>
@@ -4183,16 +4183,16 @@
         <v>2.08</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
         <v>6.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="O28" t="n">
         <v>1.21</v>
@@ -4336,7 +4336,7 @@
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.14</v>
@@ -4450,19 +4450,19 @@
         <v>2.98</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="J30" t="n">
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4474,34 +4474,34 @@
         <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R30" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V30" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
         <v>15</v>
@@ -4510,7 +4510,7 @@
         <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="n">
         <v>16</v>
@@ -4519,16 +4519,16 @@
         <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE30" t="n">
         <v>27</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH30" t="n">
         <v>16.5</v>
@@ -4540,19 +4540,19 @@
         <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="31">
@@ -4585,28 +4585,28 @@
         <v>1.98</v>
       </c>
       <c r="G31" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
         <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O31" t="n">
         <v>1.27</v>
@@ -4615,16 +4615,16 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U31" t="n">
         <v>2.14</v>
@@ -4633,7 +4633,7 @@
         <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X31" t="n">
         <v>16.5</v>
@@ -4645,10 +4645,10 @@
         <v>32</v>
       </c>
       <c r="AA31" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
         <v>8.800000000000001</v>
@@ -4657,13 +4657,13 @@
         <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>17.5</v>
@@ -4726,7 +4726,7 @@
         <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J32" t="n">
         <v>2.98</v>
@@ -4741,10 +4741,10 @@
         <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P32" t="n">
         <v>1.41</v>
@@ -4756,7 +4756,7 @@
         <v>1.14</v>
       </c>
       <c r="S32" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="T32" t="n">
         <v>2.48</v>
@@ -4774,7 +4774,7 @@
         <v>6.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z32" t="n">
         <v>13.5</v>
@@ -4855,10 +4855,10 @@
         <v>3.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I33" t="n">
         <v>2.52</v>
@@ -4870,28 +4870,28 @@
         <v>3.6</v>
       </c>
       <c r="L33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.35</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.34</v>
       </c>
       <c r="P33" t="n">
         <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
         <v>1.33</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T33" t="n">
         <v>1.79</v>
@@ -4903,10 +4903,10 @@
         <v>1.65</v>
       </c>
       <c r="W33" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
@@ -4921,7 +4921,7 @@
         <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
         <v>12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -685,55 +685,55 @@
         <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -742,10 +742,10 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="n">
         <v>14.5</v>
@@ -754,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -952,19 +952,19 @@
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -973,76 +973,76 @@
         <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,34 +1096,34 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="T5" t="n">
         <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>980</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
         <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
@@ -1252,19 +1252,19 @@
         <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
         <v>36</v>
@@ -1288,7 +1288,7 @@
         <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
         <v>18.5</v>
@@ -1300,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
@@ -1312,7 +1312,7 @@
         <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1372,7 +1372,7 @@
         <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
         <v>2.52</v>
@@ -1390,22 +1390,22 @@
         <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
         <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AB7" t="n">
         <v>6</v>
@@ -1414,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1447,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1495,7 @@
         <v>3.05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
@@ -1516,7 +1516,7 @@
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
         <v>2.22</v>
@@ -1525,7 +1525,7 @@
         <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>1.6</v>
@@ -1621,7 +1621,7 @@
         <v>2.06</v>
       </c>
       <c r="I9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J9" t="n">
         <v>2.8</v>
@@ -1654,13 +1654,13 @@
         <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U9" t="n">
         <v>1.55</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
         <v>1.21</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
@@ -1777,7 +1777,7 @@
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
         <v>2.02</v>
@@ -1795,16 +1795,16 @@
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
         <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1819,16 +1819,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
         <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1846,13 +1846,13 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
         <v>18.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,34 +1882,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N11" t="n">
         <v>2.18</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P11" t="n">
         <v>1.39</v>
@@ -1921,19 +1921,19 @@
         <v>1.13</v>
       </c>
       <c r="S11" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U11" t="n">
         <v>1.61</v>
       </c>
       <c r="V11" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -2020,10 +2020,10 @@
         <v>5.5</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I12" t="n">
         <v>1.72</v>
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2218,34 +2218,34 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AD13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,10 +2290,10 @@
         <v>7.8</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I14" t="n">
         <v>1.49</v>
@@ -2302,7 +2302,7 @@
         <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2317,22 +2317,22 @@
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
         <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>3</v>
@@ -2341,25 +2341,25 @@
         <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -2368,28 +2368,28 @@
         <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK14" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM14" t="n">
         <v>120</v>
       </c>
-      <c r="AM14" t="n">
-        <v>150</v>
-      </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO14" t="n">
         <v>5.9</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.7</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.32</v>
@@ -3265,28 +3265,28 @@
         <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S21" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
         <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
         <v>1.87</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
@@ -3325,7 +3325,7 @@
         <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
         <v>42</v>
@@ -3334,7 +3334,7 @@
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="G22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
         <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3403,10 +3403,10 @@
         <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T22" t="n">
         <v>1.93</v>
@@ -3418,7 +3418,7 @@
         <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X22" t="n">
         <v>14</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
         <v>3.85</v>
@@ -3517,25 +3517,25 @@
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P23" t="n">
         <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
@@ -3547,13 +3547,13 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
         <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
@@ -3583,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>23</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3643,13 +3643,13 @@
         <v>2.76</v>
       </c>
       <c r="H24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.15</v>
       </c>
       <c r="K24" t="n">
         <v>3.2</v>
@@ -3661,7 +3661,7 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
@@ -3670,19 +3670,19 @@
         <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R24" t="n">
         <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T24" t="n">
         <v>2.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
         <v>1.45</v>
@@ -3691,16 +3691,16 @@
         <v>1.56</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
         <v>8.800000000000001</v>
@@ -3709,13 +3709,13 @@
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
         <v>3.65</v>
@@ -3787,34 +3787,34 @@
         <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
         <v>2.14</v>
@@ -3856,7 +3856,7 @@
         <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3952,7 +3952,7 @@
         <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
         <v>1.18</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="G27" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="I27" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J27" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
         <v>1.19</v>
@@ -4066,34 +4066,34 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P27" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="R27" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S27" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="T27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.89</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.91</v>
       </c>
       <c r="V27" t="n">
         <v>1.06</v>
       </c>
       <c r="W27" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
         <v>1000</v>
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4183,13 +4183,13 @@
         <v>2.08</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
         <v>6.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
         <v>6</v>
@@ -4201,16 +4201,16 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="R28" t="n">
         <v>1.42</v>
@@ -4450,7 +4450,7 @@
         <v>2.98</v>
       </c>
       <c r="G30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
         <v>2.3</v>
@@ -4486,16 +4486,16 @@
         <v>1.46</v>
       </c>
       <c r="S30" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T30" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U30" t="n">
         <v>2.34</v>
       </c>
       <c r="V30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W30" t="n">
         <v>1.44</v>
@@ -4588,7 +4588,7 @@
         <v>2.12</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
         <v>4.4</v>
@@ -4600,7 +4600,7 @@
         <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4636,7 +4636,7 @@
         <v>1.89</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>17</v>
@@ -4651,13 +4651,13 @@
         <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
         <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF31" t="n">
         <v>13.5</v>
@@ -4675,7 +4675,7 @@
         <v>25</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>36</v>
@@ -4687,7 +4687,7 @@
         <v>14</v>
       </c>
       <c r="AO31" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -4720,13 +4720,13 @@
         <v>3.65</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I32" t="n">
         <v>2.54</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.58</v>
       </c>
       <c r="J32" t="n">
         <v>2.98</v>
@@ -4741,16 +4741,16 @@
         <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O32" t="n">
         <v>1.73</v>
       </c>
       <c r="P32" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R32" t="n">
         <v>1.14</v>
@@ -4768,7 +4768,7 @@
         <v>1.64</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X32" t="n">
         <v>6.6</v>
@@ -4789,7 +4789,7 @@
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE32" t="n">
         <v>42</v>
@@ -4798,10 +4798,10 @@
         <v>22</v>
       </c>
       <c r="AG32" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
         <v>90</v>
@@ -4816,7 +4816,7 @@
         <v>120</v>
       </c>
       <c r="AM32" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="n">
         <v>130</v>
@@ -4855,13 +4855,13 @@
         <v>3.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>2.38</v>
       </c>
       <c r="I33" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J33" t="n">
         <v>3.4</v>
@@ -4873,7 +4873,7 @@
         <v>1.43</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
         <v>3.55</v>
@@ -4882,7 +4882,7 @@
         <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" t="n">
         <v>2.04</v>
@@ -4897,13 +4897,13 @@
         <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
         <v>1.65</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X33" t="n">
         <v>16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.24</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.26</v>
-      </c>
       <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="n">
         <v>14</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
         <v>28</v>
       </c>
-      <c r="AB2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>26</v>
-      </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,13 +850,13 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.31</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
@@ -871,7 +871,7 @@
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
@@ -886,7 +886,7 @@
         <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
         <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -970,46 +970,46 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>36</v>
@@ -1024,25 +1024,25 @@
         <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
         <v>1.76</v>
@@ -1081,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1090,31 +1090,31 @@
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
         <v>2.24</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1150,22 +1150,22 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
         <v>980</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
         <v>1.89</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1237,10 +1237,10 @@
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
@@ -1252,34 +1252,34 @@
         <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
@@ -1291,10 +1291,10 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1306,7 +1306,7 @@
         <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
         <v>11.5</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1360,7 +1360,7 @@
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1384,58 +1384,58 @@
         <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="n">
         <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>70</v>
@@ -1444,10 +1444,10 @@
         <v>340</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
         <v>2.66</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="T8" t="n">
         <v>2.22</v>
@@ -1525,7 +1525,7 @@
         <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
         <v>1.6</v>
@@ -1537,10 +1537,10 @@
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>7.2</v>
@@ -1552,7 +1552,7 @@
         <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AF8" t="n">
         <v>15</v>
@@ -1561,28 +1561,28 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK8" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>460</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN8" t="n">
         <v>980</v>
       </c>
-      <c r="AL8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>55</v>
-      </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
         <v>2.8</v>
@@ -1651,25 +1651,25 @@
         <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U9" t="n">
         <v>1.55</v>
       </c>
       <c r="V9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,13 +1678,13 @@
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
@@ -1777,16 +1777,16 @@
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.86</v>
@@ -1795,61 +1795,61 @@
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
         <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>1.57</v>
@@ -1906,25 +1906,25 @@
         <v>1.15</v>
       </c>
       <c r="N11" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="O11" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="P11" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
         <v>1.13</v>
       </c>
       <c r="S11" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="U11" t="n">
         <v>1.61</v>
@@ -1933,13 +1933,13 @@
         <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1960,10 +1960,10 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -1978,7 +1978,7 @@
         <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I12" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2041,76 +2041,76 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
         <v>2.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="W12" t="n">
         <v>1.17</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2158,16 +2158,16 @@
         <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2176,28 +2176,28 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
         <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
         <v>1.26</v>
@@ -2206,10 +2206,10 @@
         <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2218,34 +2218,34 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
         <v>970</v>
       </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>980</v>
-      </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
@@ -2293,16 +2293,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I14" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J14" t="n">
         <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,16 +2311,16 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
         <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
         <v>1.56</v>
@@ -2332,25 +2332,25 @@
         <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W14" t="n">
         <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
@@ -2359,7 +2359,7 @@
         <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -2368,19 +2368,19 @@
         <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
         <v>270</v>
       </c>
       <c r="AK14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL14" t="n">
         <v>100</v>
@@ -2389,10 +2389,10 @@
         <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.65</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
@@ -3250,7 +3250,7 @@
         <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3259,34 +3259,34 @@
         <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
         <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
@@ -3334,7 +3334,7 @@
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3397,82 +3397,82 @@
         <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
         <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T22" t="n">
         <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
         <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="n">
         <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
         <v>3.35</v>
@@ -3520,7 +3520,7 @@
         <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
@@ -3529,19 +3529,19 @@
         <v>2.66</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
         <v>2.02</v>
@@ -3553,19 +3553,19 @@
         <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
         <v>8.199999999999999</v>
@@ -3577,13 +3577,13 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF23" t="n">
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
         <v>23</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AK23" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.05</v>
@@ -3670,7 +3670,7 @@
         <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
         <v>1.22</v>
@@ -3679,7 +3679,7 @@
         <v>4.9</v>
       </c>
       <c r="T24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
         <v>1.9</v>
@@ -3688,19 +3688,19 @@
         <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AB24" t="n">
         <v>8.800000000000001</v>
@@ -3712,10 +3712,10 @@
         <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
@@ -3724,25 +3724,25 @@
         <v>22</v>
       </c>
       <c r="AI24" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3775,19 +3775,19 @@
         <v>3.25</v>
       </c>
       <c r="G25" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
@@ -3799,13 +3799,13 @@
         <v>3.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
         <v>1.94</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
         <v>1.36</v>
@@ -3820,43 +3820,43 @@
         <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W25" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3907,61 +3907,61 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G26" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q26" t="n">
         <v>1.92</v>
       </c>
       <c r="R26" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>1.18</v>
       </c>
       <c r="W26" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
@@ -3973,10 +3973,10 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3985,22 +3985,22 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4045,19 +4045,19 @@
         <v>1.19</v>
       </c>
       <c r="G27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H27" t="n">
         <v>12.5</v>
       </c>
       <c r="I27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J27" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.19</v>
@@ -4072,16 +4072,16 @@
         <v>1.13</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S27" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T27" t="n">
         <v>1.94</v>
@@ -4090,10 +4090,10 @@
         <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W27" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
         <v>1000</v>
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
         <v>6.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O28" t="n">
         <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T28" t="n">
         <v>1.04</v>
@@ -4228,7 +4228,7 @@
         <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4261,7 +4261,7 @@
         <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G29" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="H29" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J29" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K29" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -4342,7 +4342,7 @@
         <v>1.14</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q29" t="n">
         <v>1.42</v>
@@ -4354,16 +4354,16 @@
         <v>2.04</v>
       </c>
       <c r="T29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U29" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
         <v>1.03</v>
       </c>
       <c r="W29" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4456,13 +4456,13 @@
         <v>2.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4489,70 +4489,70 @@
         <v>2.72</v>
       </c>
       <c r="T30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U30" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W30" t="n">
         <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AB30" t="n">
         <v>16</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG30" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>16.5</v>
       </c>
       <c r="AH30" t="n">
         <v>16.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AK30" t="n">
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G31" t="n">
         <v>2.12</v>
@@ -4594,13 +4594,13 @@
         <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
         <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4675,7 +4675,7 @@
         <v>25</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>36</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G32" t="n">
         <v>3.75</v>
@@ -4747,7 +4747,7 @@
         <v>1.73</v>
       </c>
       <c r="P32" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q32" t="n">
         <v>3.25</v>
@@ -4759,22 +4759,22 @@
         <v>7.8</v>
       </c>
       <c r="T32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U32" t="n">
         <v>1.64</v>
       </c>
       <c r="V32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W32" t="n">
         <v>1.36</v>
       </c>
       <c r="X32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z32" t="n">
         <v>13.5</v>
@@ -4783,13 +4783,13 @@
         <v>40</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC32" t="n">
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
         <v>42</v>
@@ -4798,10 +4798,10 @@
         <v>22</v>
       </c>
       <c r="AG32" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
         <v>90</v>
@@ -4864,10 +4864,10 @@
         <v>2.54</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.43</v>
@@ -4876,7 +4876,7 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O33" t="n">
         <v>1.35</v>
@@ -4894,13 +4894,13 @@
         <v>3.65</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="n">
         <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W33" t="n">
         <v>1.41</v>
@@ -4924,10 +4924,10 @@
         <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF33" t="n">
         <v>24</v>
@@ -4957,7 +4957,7 @@
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -673,7 +673,7 @@
         <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
         <v>2.24</v>
@@ -685,13 +685,13 @@
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
@@ -700,31 +700,31 @@
         <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -733,10 +733,10 @@
         <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -745,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -754,10 +754,10 @@
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
         <v>44</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
         <v>44</v>
@@ -832,10 +832,10 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -844,16 +844,16 @@
         <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
         <v>95</v>
@@ -871,7 +871,7 @@
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
         <v>3.15</v>
@@ -955,7 +955,7 @@
         <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -982,16 +982,16 @@
         <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
         <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>13.5</v>
@@ -1024,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1042,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1096,25 +1096,25 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
         <v>2.24</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1156,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
         <v>1.89</v>
@@ -1216,7 +1216,7 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
@@ -1225,13 +1225,13 @@
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
@@ -1240,13 +1240,13 @@
         <v>2.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>1.74</v>
@@ -1261,7 +1261,7 @@
         <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
@@ -1276,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>19</v>
@@ -1285,7 +1285,7 @@
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1297,19 +1297,19 @@
         <v>250</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>60</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
         <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
         <v>6.8</v>
@@ -1366,7 +1366,7 @@
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O7" t="n">
         <v>1.52</v>
@@ -1390,7 +1390,7 @@
         <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
         <v>2.16</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
         <v>2.66</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -1501,28 +1501,28 @@
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.32</v>
@@ -1531,7 +1531,7 @@
         <v>1.6</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -1549,7 +1549,7 @@
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>440</v>
@@ -1576,13 +1576,13 @@
         <v>460</v>
       </c>
       <c r="AM8" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
         <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
         <v>3.2</v>
@@ -1636,31 +1636,31 @@
         <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
         <v>1.23</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
@@ -1771,46 +1771,46 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
         <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
         <v>8.6</v>
@@ -1819,10 +1819,10 @@
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1840,7 +1840,7 @@
         <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>42</v>
@@ -1849,10 +1849,10 @@
         <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
         <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
         <v>6.4</v>
@@ -1897,19 +1897,19 @@
         <v>2.92</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M11" t="n">
         <v>1.15</v>
       </c>
       <c r="N11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
         <v>1.41</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S11" t="n">
         <v>6.4</v>
@@ -1933,7 +1933,7 @@
         <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1942,7 +1942,7 @@
         <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>5.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1960,7 +1960,7 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
         <v>40</v>
@@ -2050,7 +2050,7 @@
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
         <v>1.43</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
         <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
         <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2185,7 +2185,7 @@
         <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
@@ -2206,10 +2206,10 @@
         <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2224,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>130</v>
@@ -2290,7 +2290,7 @@
         <v>7.8</v>
       </c>
       <c r="G14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
         <v>1.45</v>
@@ -2302,7 +2302,7 @@
         <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2320,10 +2320,10 @@
         <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
         <v>2.5</v>
@@ -2341,22 +2341,22 @@
         <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
@@ -2392,7 +2392,7 @@
         <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="15">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.16</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.18</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
@@ -3250,7 +3250,7 @@
         <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3268,10 +3268,10 @@
         <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
         <v>1.64</v>
@@ -3280,10 +3280,10 @@
         <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -3370,7 +3370,7 @@
         <v>2.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3379,7 +3379,7 @@
         <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
@@ -3397,7 +3397,7 @@
         <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
         <v>2.12</v>
@@ -3412,7 +3412,7 @@
         <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
         <v>1.28</v>
@@ -3457,7 +3457,7 @@
         <v>380</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
         <v>75</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G23" t="n">
         <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
         <v>3.85</v>
@@ -3517,25 +3517,25 @@
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="P23" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
@@ -3544,10 +3544,10 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
         <v>1.35</v>
@@ -3556,10 +3556,10 @@
         <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
         <v>46</v>
@@ -3568,7 +3568,7 @@
         <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
@@ -3577,7 +3577,7 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AF23" t="n">
         <v>15</v>
@@ -3586,7 +3586,7 @@
         <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3676,7 +3676,7 @@
         <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
         <v>2.02</v>
@@ -3691,16 +3691,16 @@
         <v>1.55</v>
       </c>
       <c r="X24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
         <v>8.800000000000001</v>
@@ -3709,40 +3709,40 @@
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK24" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
         <v>3.4</v>
@@ -3784,7 +3784,7 @@
         <v>2.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>3.75</v>
@@ -3796,16 +3796,16 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>1.94</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R25" t="n">
         <v>1.36</v>
@@ -3817,10 +3817,10 @@
         <v>1.71</v>
       </c>
       <c r="U25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V25" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
         <v>1.41</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB25" t="n">
         <v>22</v>
@@ -3850,7 +3850,7 @@
         <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
         <v>27</v>
@@ -3919,7 +3919,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
         <v>5.1</v>
@@ -3946,13 +3946,13 @@
         <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
         <v>1.18</v>
@@ -3991,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G27" t="n">
         <v>1.25</v>
       </c>
       <c r="H27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L27" t="n">
         <v>1.19</v>
@@ -4078,19 +4078,19 @@
         <v>1.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S27" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U27" t="n">
         <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W27" t="n">
         <v>5</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4210,10 +4210,10 @@
         <v>2.16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
         <v>2.28</v>
@@ -4225,10 +4225,10 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4318,13 +4318,13 @@
         <v>1.21</v>
       </c>
       <c r="H29" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I29" t="n">
         <v>30</v>
       </c>
       <c r="J29" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K29" t="n">
         <v>16</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4489,7 +4489,7 @@
         <v>2.72</v>
       </c>
       <c r="T30" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U30" t="n">
         <v>2.32</v>
@@ -4510,7 +4510,7 @@
         <v>18.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
         <v>16</v>
@@ -4525,7 +4525,7 @@
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
         <v>14.5</v>
@@ -4537,7 +4537,7 @@
         <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="AK30" t="n">
         <v>34</v>
@@ -4582,85 +4582,85 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="G31" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R31" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
         <v>1.72</v>
       </c>
       <c r="U31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z31" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
         <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4669,25 +4669,25 @@
         <v>17.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
         <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -4717,28 +4717,28 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G32" t="n">
         <v>3.7</v>
       </c>
-      <c r="G32" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H32" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J32" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.98</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>1.71</v>
       </c>
       <c r="M32" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N32" t="n">
         <v>2.32</v>
@@ -4765,13 +4765,13 @@
         <v>1.64</v>
       </c>
       <c r="V32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W32" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y32" t="n">
         <v>6.4</v>
@@ -4798,7 +4798,7 @@
         <v>22</v>
       </c>
       <c r="AG32" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
         <v>30</v>
@@ -4858,7 +4858,7 @@
         <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I33" t="n">
         <v>2.54</v>
@@ -4885,19 +4885,19 @@
         <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
         <v>1.33</v>
       </c>
       <c r="S33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T33" t="n">
         <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
         <v>1.64</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -691,49 +691,49 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W2" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -745,34 +745,34 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
         <v>60</v>
@@ -1012,34 +1012,34 @@
         <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AO4" t="n">
         <v>34</v>
@@ -1072,49 +1072,49 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
         <v>2.24</v>
@@ -1123,13 +1123,13 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1150,31 +1150,31 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,40 +1210,40 @@
         <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
@@ -1258,25 +1258,25 @@
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
         <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>330</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
         <v>19</v>
@@ -1285,34 +1285,34 @@
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1345,49 +1345,49 @@
         <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
         <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
         <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
         <v>1.18</v>
@@ -1396,7 +1396,7 @@
         <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1417,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
         <v>9.199999999999999</v>
@@ -1429,25 +1429,25 @@
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM7" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC8" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AD8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
         <v>46</v>
       </c>
-      <c r="AA8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>48</v>
-      </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>460</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="M9" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="O9" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
         <v>1.79</v>
       </c>
       <c r="W9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>980</v>
@@ -1681,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>40</v>
@@ -1747,70 +1747,70 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
         <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
         <v>8.6</v>
@@ -1819,10 +1819,10 @@
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1831,7 +1831,7 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>170</v>
@@ -1840,19 +1840,19 @@
         <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
         <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,76 +1882,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
         <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="M11" t="n">
         <v>1.15</v>
       </c>
       <c r="N11" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P11" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="U11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
       </c>
       <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
         <v>980</v>
       </c>
-      <c r="Z11" t="n">
-        <v>170</v>
-      </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -2017,91 +2017,91 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="I12" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.17</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA12" t="n">
         <v>16.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>65</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,52 +2152,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
         <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.18</v>
       </c>
       <c r="V13" t="n">
         <v>1.26</v>
@@ -2206,10 +2206,10 @@
         <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2218,19 +2218,19 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
         <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,40 +2287,40 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>1.45</v>
       </c>
       <c r="I14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J14" t="n">
         <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
         <v>1.57</v>
@@ -2329,22 +2329,22 @@
         <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W14" t="n">
         <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
         <v>10.5</v>
@@ -2353,37 +2353,37 @@
         <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AG14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
         <v>270</v>
       </c>
       <c r="AK14" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="AL14" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
@@ -2392,7 +2392,7 @@
         <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
@@ -3232,88 +3232,88 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3322,22 +3322,22 @@
         <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
         <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X22" t="n">
         <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>980</v>
@@ -3451,13 +3451,13 @@
         <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>380</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
         <v>75</v>
@@ -3505,13 +3505,13 @@
         <v>2.36</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -3520,22 +3520,22 @@
         <v>3.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
         <v>1.52</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
@@ -3544,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
         <v>1.78</v>
@@ -3553,7 +3553,7 @@
         <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
         <v>9.199999999999999</v>
@@ -3565,7 +3565,7 @@
         <v>46</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
         <v>8</v>
@@ -3577,13 +3577,13 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>42</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK23" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
         <v>2.8</v>
@@ -3655,13 +3655,13 @@
         <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
@@ -3670,13 +3670,13 @@
         <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R24" t="n">
         <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T24" t="n">
         <v>2.02</v>
@@ -3685,7 +3685,7 @@
         <v>1.9</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
         <v>1.55</v>
@@ -3712,7 +3712,7 @@
         <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
         <v>17</v>
@@ -3721,7 +3721,7 @@
         <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>70</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
         <v>3.4</v>
@@ -3790,7 +3790,7 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -3799,49 +3799,49 @@
         <v>3.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.81</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W25" t="n">
         <v>1.41</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
         <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA25" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
         <v>22</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
         <v>11.5</v>
@@ -3850,7 +3850,7 @@
         <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG25" t="n">
         <v>27</v>
@@ -3868,7 +3868,7 @@
         <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -3907,61 +3907,61 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="G26" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I26" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="X26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
@@ -3973,7 +3973,7 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
         <v>42</v>
@@ -3988,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="n">
         <v>970</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
         <v>65</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="G27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H27" t="n">
         <v>13</v>
@@ -4054,37 +4054,37 @@
         <v>18</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="R27" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T27" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
         <v>1.89</v>
@@ -4093,7 +4093,7 @@
         <v>1.06</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,46 +4177,46 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>2.54</v>
+        <v>4.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="S28" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="T28" t="n">
         <v>1.04</v>
@@ -4225,10 +4225,10 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W28" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,58 +4312,58 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="G29" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>9.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="I29" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J29" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K29" t="n">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P29" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S29" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="T29" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="W29" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4453,46 +4453,46 @@
         <v>3.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I30" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
         <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="R30" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="T30" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
         <v>1.66</v>
@@ -4501,22 +4501,22 @@
         <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA30" t="n">
         <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>12.5</v>
@@ -4528,7 +4528,7 @@
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>16.5</v>
@@ -4537,22 +4537,22 @@
         <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
         <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4609,49 +4609,49 @@
         <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="R31" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V31" t="n">
         <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y31" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>18</v>
       </c>
       <c r="Z31" t="n">
         <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
         <v>18</v>
@@ -4660,19 +4660,19 @@
         <v>55</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
         <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
         <v>20</v>
@@ -4681,13 +4681,13 @@
         <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
         <v>3.7</v>
@@ -4726,16 +4726,16 @@
         <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J32" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M32" t="n">
         <v>1.18</v>
@@ -4747,7 +4747,7 @@
         <v>1.73</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q32" t="n">
         <v>3.25</v>
@@ -4759,13 +4759,13 @@
         <v>7.8</v>
       </c>
       <c r="T32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W32" t="n">
         <v>1.37</v>
@@ -4774,7 +4774,7 @@
         <v>6.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z32" t="n">
         <v>13.5</v>
@@ -4783,7 +4783,7 @@
         <v>40</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
         <v>7</v>
@@ -4819,7 +4819,7 @@
         <v>290</v>
       </c>
       <c r="AN32" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AO32" t="n">
         <v>55</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I33" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="J33" t="n">
         <v>3.35</v>
@@ -4870,40 +4870,40 @@
         <v>3.55</v>
       </c>
       <c r="L33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
         <v>1.33</v>
       </c>
       <c r="S33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="W33" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X33" t="n">
         <v>16</v>
@@ -4921,10 +4921,10 @@
         <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE33" t="n">
         <v>980</v>
@@ -4942,7 +4942,7 @@
         <v>980</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK33" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,43 +670,43 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
         <v>1.85</v>
@@ -715,28 +715,28 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
         <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -745,22 +745,22 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>85</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
         <v>60</v>
@@ -769,10 +769,10 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KFCO Beerschot Wilrijk</t>
+          <t>Malzenice</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>KFCO Beerschot Wilrijk</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.86</v>
       </c>
       <c r="G4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.34</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
       </c>
       <c r="Z4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
         <v>25</v>
       </c>
-      <c r="AA4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>38</v>
-      </c>
       <c r="AF4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG4" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>660</v>
       </c>
       <c r="AN4" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,78 +1058,78 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>1.09</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
         <v>38</v>
       </c>
-      <c r="AA6" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="n">
         <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Zawisza Bydgoszcz</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="S7" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="O8" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="S8" t="n">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>1.71</v>
       </c>
       <c r="G9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I9" t="n">
         <v>5.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.28</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.81</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>1.32</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>8.6</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>2.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.8</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
         <v>980</v>
       </c>
-      <c r="AB9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>8</v>
       </c>
-      <c r="AD9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>1.69</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>70</v>
       </c>
-      <c r="AF10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>4.7</v>
       </c>
       <c r="G11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N11" t="n">
         <v>2.08</v>
       </c>
-      <c r="H11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.4</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="P11" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="S11" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.79</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.21</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="n">
         <v>980</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>980</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>1.84</v>
       </c>
       <c r="G12" t="n">
-        <v>7.2</v>
+        <v>1.94</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65</v>
+        <v>5.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.72</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>2.16</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>2.74</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>1.17</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.5</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>5.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>18.5</v>
+        <v>180</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>2.46</v>
       </c>
       <c r="O13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.25</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>38</v>
+        <v>7.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN13" t="n">
         <v>36</v>
       </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>9.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.45</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.47</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.31</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>3.1</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.12</v>
+        <v>1.9</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>30</v>
-      </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,93 +2408,93 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>2.96</v>
       </c>
       <c r="R15" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2503,28 +2503,28 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,105 +2543,105 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>5.9</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>1.75</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2662,13 +2662,13 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL17" t="n">
         <v>980</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.04</v>
       </c>
-      <c r="G18" t="n">
-        <v>980</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K18" t="n">
-        <v>980</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N18" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.52</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="19">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2971,7 +2971,7 @@
         <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
         <v>1.01</v>
@@ -2995,7 +2995,7 @@
         <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>1.01</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,7 +3130,7 @@
         <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
         <v>1.01</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="S21" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,114 +3488,114 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="O23" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.58</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>980</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="S24" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="H25" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="W25" t="n">
         <v>1.35</v>
       </c>
-      <c r="S25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.41</v>
-      </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="n">
         <v>65</v>
       </c>
-      <c r="AF25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="P26" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.94</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>2.22</v>
+        <v>1.87</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF26" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG26" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,114 +4028,114 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.24</v>
+        <v>2.44</v>
       </c>
       <c r="G27" t="n">
-        <v>1.26</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" t="n">
         <v>13</v>
       </c>
-      <c r="I27" t="n">
-        <v>18</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.65</v>
+        <v>50</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="I28" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>4.8</v>
+        <v>2.94</v>
       </c>
       <c r="O28" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>2.58</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,100 +4303,100 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.19</v>
+        <v>3.3</v>
       </c>
       <c r="G29" t="n">
-        <v>1.24</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>5.4</v>
+        <v>2.22</v>
       </c>
       <c r="I29" t="n">
-        <v>24</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>500</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>2.72</v>
+        <v>1.92</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="R29" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="S29" t="n">
-        <v>2.2</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="V29" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
-        <v>4.4</v>
+        <v>1.39</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -4438,109 +4438,109 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.98</v>
+        <v>1.76</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>1.87</v>
       </c>
       <c r="H30" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>2.52</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="R30" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W30" t="n">
         <v>2.14</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AD30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AH30" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4549,10 +4549,10 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.7</v>
+        <v>17.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.06</v>
       </c>
-      <c r="N31" t="n">
-        <v>4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,261 +4703,801 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>2.54</v>
+        <v>3.85</v>
       </c>
       <c r="I32" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>1.43</v>
+        <v>2.38</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="S32" t="n">
-        <v>7.8</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>2.48</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
-        <v>1.65</v>
+        <v>2.34</v>
       </c>
       <c r="V32" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="X32" t="n">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AF32" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AJ32" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AM32" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>110</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Barry Town Utd</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Llanelli Town</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>980</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Connahs Quay</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Mazatlan FC</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>FC Juarez</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="F37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J37" t="n">
         <v>3.35</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K37" t="n">
         <v>3.55</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>1.44</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M37" t="n">
         <v>1.08</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N37" t="n">
         <v>3.6</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O37" t="n">
         <v>1.36</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P37" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q37" t="n">
         <v>2.08</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R37" t="n">
         <v>1.33</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S37" t="n">
         <v>3.75</v>
       </c>
-      <c r="T33" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="T37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U37" t="n">
         <v>2.1</v>
       </c>
-      <c r="V33" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X33" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA33" t="n">
+      <c r="V37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE37" t="n">
         <v>980</v>
       </c>
-      <c r="AB33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE33" t="n">
+      <c r="AF37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI37" t="n">
         <v>980</v>
       </c>
-      <c r="AF33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI33" t="n">
+      <c r="AJ37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK37" t="n">
         <v>980</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>24</v>
+      <c r="AL37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>1.39</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>3.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
-      </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD2" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>5.9</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,31 +880,31 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KFCO Beerschot Wilrijk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>55</v>
       </c>
       <c r="L4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.31</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>KFCO Beerschot Wilrijk</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.04</v>
       </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Znicz Pruszkow</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
+        <v>520</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="n">
         <v>980</v>
       </c>
-      <c r="AA6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>38</v>
-      </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO6" t="n">
         <v>980</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zawisza Bydgoszcz</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Buriram Utd</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.71</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>1.74</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>1.23</v>
       </c>
       <c r="X9" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="n">
         <v>19</v>
       </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>28</v>
-      </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,108 +1868,108 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Zawisza Bydgoszcz</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>5.6</v>
+        <v>1.34</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.26</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>2.78</v>
+        <v>5.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.05</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.8</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="O11" t="n">
-        <v>1.83</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>1.35</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="R11" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>7.8</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="V11" t="n">
-        <v>1.79</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.21</v>
+        <v>3.9</v>
       </c>
       <c r="X11" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1984,16 +1984,16 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.84</v>
+        <v>4.4</v>
       </c>
       <c r="G12" t="n">
-        <v>1.94</v>
+        <v>5.1</v>
       </c>
       <c r="H12" t="n">
-        <v>5.4</v>
+        <v>1.74</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>1.87</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.16</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.37</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>1.56</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>2.74</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>2.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>1.26</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>630</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>540</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.46</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.45</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.88</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>1.16</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="X13" t="n">
-        <v>7.4</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
         <v>140</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
         <v>100</v>
       </c>
-      <c r="AF13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>280</v>
-      </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="Q14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.08</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK14" t="n">
         <v>36</v>
       </c>
-      <c r="AA14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>40</v>
-      </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>460</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>610</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="G15" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
         <v>2.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="P15" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
         <v>2.96</v>
       </c>
       <c r="R15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S15" t="n">
         <v>6.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="U15" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>17.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,108 +2543,108 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X16" t="n">
         <v>5.9</v>
       </c>
-      <c r="G16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
-      </c>
       <c r="Y16" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
         <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -2662,13 +2662,13 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="Q17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.76</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.7</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
         <v>11</v>
       </c>
-      <c r="AC17" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AK17" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="I18" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.21</v>
       </c>
-      <c r="P18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.13</v>
-      </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AB18" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,123 +2948,123 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="S19" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,123 +3083,123 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
         <v>4.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.01</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.04</v>
       </c>
-      <c r="G21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="N21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.04</v>
       </c>
-      <c r="I21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K21" t="n">
-        <v>980</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>2.42</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="S25" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="I26" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,114 +4028,114 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="O27" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q27" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.84</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="H28" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J28" t="n">
         <v>3</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.94</v>
+        <v>2.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>1.51</v>
       </c>
       <c r="V28" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="X28" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="H29" t="n">
-        <v>2.22</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>3.8</v>
+        <v>2.94</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="P29" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="R29" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>11.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB29" t="n">
-        <v>22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
         <v>65</v>
       </c>
-      <c r="AF29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.76</v>
+        <v>3.75</v>
       </c>
       <c r="G30" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>2.06</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>1.85</v>
+        <v>2.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="R30" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="S30" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="U30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.91</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W30" t="n">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="X30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG30" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
+      <c r="AH30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="n">
         <v>40</v>
       </c>
-      <c r="AG30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>65</v>
       </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN30" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,72 +4568,72 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.23</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>1.26</v>
+        <v>2.18</v>
       </c>
       <c r="H31" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>17.5</v>
+        <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>6.8</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>9.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>3.15</v>
+        <v>1.79</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="R31" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V31" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>4.9</v>
+        <v>1.84</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4642,58 +4642,58 @@
         <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.4</v>
+        <v>85</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
         <v>3.85</v>
       </c>
-      <c r="I32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.04</v>
       </c>
-      <c r="N32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.34</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="W32" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="AK32" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AM32" t="n">
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -4843,73 +4843,73 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="H33" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>980</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.27</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S33" t="n">
-        <v>2.22</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="U33" t="n">
-        <v>1.36</v>
+        <v>1.86</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>3.9</v>
+        <v>2.02</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4930,22 +4930,22 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1.23</v>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>1.28</v>
       </c>
       <c r="H34" t="n">
-        <v>2.32</v>
+        <v>11</v>
       </c>
       <c r="I34" t="n">
-        <v>2.52</v>
+        <v>15.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>8.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.06</v>
       </c>
-      <c r="N34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.66</v>
-      </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>4.5</v>
       </c>
       <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC34" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="AK34" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.8</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="S35" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="T35" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="U35" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="V35" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
         <v>17</v>
       </c>
-      <c r="Y35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI35" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AJ35" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AK35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.55</v>
+        <v>1.24</v>
       </c>
       <c r="G36" t="n">
-        <v>3.65</v>
+        <v>1.28</v>
       </c>
       <c r="H36" t="n">
-        <v>2.58</v>
+        <v>7.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.6</v>
+        <v>23</v>
       </c>
       <c r="J36" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.17</v>
       </c>
-      <c r="N36" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.73</v>
-      </c>
       <c r="P36" t="n">
-        <v>1.43</v>
+        <v>2.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="S36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
         <v>7.6</v>
       </c>
-      <c r="T36" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X36" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>110</v>
-      </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,126 +5378,531 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="R37" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="S37" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="U37" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V37" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="W37" t="n">
         <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD37" t="n">
         <v>12</v>
       </c>
       <c r="AE37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X40" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA40" t="n">
         <v>980</v>
       </c>
-      <c r="AF37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH37" t="n">
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH40" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AI40" t="n">
         <v>980</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AJ40" t="n">
         <v>60</v>
       </c>
-      <c r="AK37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL37" t="n">
+      <c r="AK40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL40" t="n">
         <v>50</v>
       </c>
-      <c r="AM37" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>25</v>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>Malzenice</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>1.39</v>
+        <v>980</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>1.03</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>1.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.02</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="V2" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Malzenice</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.27</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.34</v>
+        <v>990</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="I3" t="n">
-        <v>19.5</v>
+        <v>1.11</v>
       </c>
       <c r="J3" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>8.199999999999999</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S3" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>3.9</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>KFCO Beerschot Wilrijk</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>55</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.03</v>
       </c>
-      <c r="N4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>1.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KFCO Beerschot Wilrijk</t>
+          <t>Znicz Pruszkow</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>990</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>250</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.51</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Znicz Pruszkow</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.03</v>
       </c>
-      <c r="N6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.18</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="T6" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Van Buyuksehir Belediyespor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>2.56</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.6</v>
       </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.34</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.46</v>
-      </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="n">
         <v>20</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>25</v>
-      </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Zawisza Bydgoszcz</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.27</v>
       </c>
       <c r="G8" t="n">
-        <v>1.99</v>
+        <v>1.32</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>15.5</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W8" t="n">
         <v>3.85</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2</v>
-      </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>4.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,25 +1603,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Buriram Utd</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G9" t="n">
         <v>4.5</v>
       </c>
-      <c r="G9" t="n">
-        <v>5.4</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,94 +1630,94 @@
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="W9" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>21</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
       <c r="AE9" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9.6</v>
       </c>
     </row>
     <row r="10">
@@ -1747,118 +1747,118 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
         <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>18.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO10" t="n">
         <v>55</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zawisza Bydgoszcz</t>
+          <t>Buriram Utd</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>4.9</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>19</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>1.61</v>
       </c>
       <c r="G12" t="n">
-        <v>5.1</v>
+        <v>1.64</v>
       </c>
       <c r="H12" t="n">
-        <v>1.74</v>
+        <v>5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.87</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.42</v>
+        <v>2.96</v>
       </c>
       <c r="T12" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>2.14</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>1.26</v>
+        <v>2.56</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>2.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>2.54</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
+        <v>460</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN13" t="n">
         <v>32</v>
       </c>
-      <c r="AM13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>12</v>
-      </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AH14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="n">
         <v>65</v>
       </c>
-      <c r="AA14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>36</v>
-      </c>
       <c r="AL14" t="n">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>610</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AO14" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2413,25 +2413,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
         <v>2.82</v>
@@ -2440,100 +2440,100 @@
         <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="N15" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="O15" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="S15" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="U15" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.8</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>17.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="AI15" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.84</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.68</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.79</v>
       </c>
-      <c r="W16" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X16" t="n">
-        <v>5.9</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.8</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK16" t="n">
         <v>25</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
         <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>310</v>
+      </c>
+      <c r="AO18" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,91 +2962,91 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
         <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="M19" t="n">
         <v>1.16</v>
       </c>
       <c r="N19" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="O19" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="U19" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3055,10 +3055,10 @@
         <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>8.6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>1.38</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>1.42</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>3.35</v>
       </c>
       <c r="W20" t="n">
-        <v>2.04</v>
+        <v>1.11</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>130</v>
+        <v>13.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="AL20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.4</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
-        <v>10.5</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>1.37</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>1.42</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>2.66</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="S21" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.04</v>
       </c>
-      <c r="G22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K22" t="n">
-        <v>980</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N22" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="R22" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z23" t="n">
         <v>980</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,114 +3623,114 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>980</v>
+        <v>2.58</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>980</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.01</v>
-      </c>
       <c r="S25" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="H26" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,78 +4028,78 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="G27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.16</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.53</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,72 +4163,72 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>1.27</v>
       </c>
       <c r="G28" t="n">
-        <v>2.56</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="K28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P28" t="n">
         <v>3.25</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.92</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>2.02</v>
       </c>
       <c r="T28" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="U28" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="W28" t="n">
-        <v>1.64</v>
+        <v>4.2</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4255,10 +4255,10 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4267,19 +4267,19 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.84</v>
+        <v>1.86</v>
       </c>
       <c r="G29" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="I29" t="n">
-        <v>2.98</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>2.94</v>
+        <v>4.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.48</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>2.56</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="U29" t="n">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="X29" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
         <v>17</v>
       </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AM29" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>46</v>
+        <v>9.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.75</v>
+        <v>1.24</v>
       </c>
       <c r="G30" t="n">
-        <v>3.85</v>
+        <v>1.27</v>
       </c>
       <c r="H30" t="n">
-        <v>2.06</v>
+        <v>13.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.1</v>
+        <v>19</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="S30" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="T30" t="n">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.06</v>
       </c>
       <c r="W30" t="n">
-        <v>1.35</v>
+        <v>4.7</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>4.2</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K31" t="n">
         <v>4.1</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.45</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.84</v>
-      </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC31" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>370</v>
+        <v>25</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="AJ31" t="n">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
-        <v>600</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.4</v>
+        <v>1.78</v>
       </c>
       <c r="G32" t="n">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
-        <v>2.24</v>
+        <v>4.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.34</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="R32" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="S32" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V32" t="n">
-        <v>1.74</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y32" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG32" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH32" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>440</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="AM32" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO32" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.88</v>
+        <v>3.65</v>
       </c>
       <c r="G33" t="n">
-        <v>1.98</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>2.54</v>
       </c>
       <c r="I33" t="n">
-        <v>5.3</v>
+        <v>2.58</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="O33" t="n">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="P33" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="S33" t="n">
-        <v>3.95</v>
+        <v>7.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="U33" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="V33" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="W33" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="X33" t="n">
-        <v>24</v>
+        <v>6.8</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ33" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="n">
         <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,935 +4973,125 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.23</v>
+        <v>2.94</v>
       </c>
       <c r="G34" t="n">
-        <v>1.28</v>
+        <v>3.15</v>
       </c>
       <c r="H34" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X34" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y34" t="n">
         <v>11</v>
       </c>
-      <c r="I34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF34" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
         <v>14</v>
       </c>
       <c r="AH34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI34" t="n">
         <v>980</v>
       </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.5</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Haverfordwest County</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Briton Ferry Llansawel</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Barry Town Utd</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Llanelli Town</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>23</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W36" t="n">
-        <v>4</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Caernarfon Town</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Connahs Quay</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Flint Town United</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Bala Town</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X38" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X39" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X40" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO40" t="n">
         <v>28</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,69 +788,69 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
-        <v>990</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="I3" t="n">
-        <v>1.11</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="R3" t="n">
-        <v>2.04</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
         <v>1.02</v>
@@ -862,10 +862,10 @@
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KFCO Beerschot Wilrijk</t>
+          <t>Zawisza Bydgoszcz</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.03</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.45</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="n">
-        <v>1.06</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,75 +1058,75 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Znicz Pruszkow</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>800</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>1.19</v>
       </c>
       <c r="I5" t="n">
-        <v>990</v>
+        <v>800</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.01</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="T5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.01</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1168,7 +1168,7 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>9.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.01</v>
       </c>
-      <c r="N6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.03</v>
+        <v>46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>1.03</v>
+        <v>50</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>1.86</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediyespor</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Buriram Utd</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>200</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>1.11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>1.16</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>6.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>130</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>1.11</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>850</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,72 +1463,72 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Zawisza Bydgoszcz</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="G8" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I8" t="n">
-        <v>15.5</v>
+        <v>140</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>19</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.49</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>3.85</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,43 +1543,43 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.95</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>1.83</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.89</v>
+        <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5.7</v>
+        <v>2.44</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.64</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.52</v>
+        <v>2.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>2.04</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>44</v>
+        <v>5.5</v>
       </c>
       <c r="AC9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>21</v>
       </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AK9" t="n">
         <v>32</v>
       </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>2.42</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.66</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>1.43</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>6.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>2.22</v>
+        <v>1.64</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Buriram Utd</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>4.9</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="I11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.8</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.11</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.24</v>
+        <v>1.84</v>
       </c>
       <c r="W11" t="n">
         <v>1.23</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>6.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17.5</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>230</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="AJ11" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="W12" t="n">
-        <v>2.56</v>
+        <v>1.86</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK12" t="n">
         <v>24</v>
       </c>
-      <c r="AE12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>16</v>
-      </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.68</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.54</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK13" t="n">
         <v>21</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>32</v>
       </c>
-      <c r="AL13" t="n">
-        <v>460</v>
-      </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M14" t="n">
         <v>1.15</v>
       </c>
       <c r="N14" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="O14" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="X14" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
         <v>19</v>
       </c>
-      <c r="AE14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13</v>
-      </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>140</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>38</v>
-      </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>2.16</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.4</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>7.8</v>
+        <v>3.25</v>
       </c>
       <c r="T15" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
-        <v>6.6</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
         <v>21</v>
       </c>
-      <c r="AA15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>150</v>
-      </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>8.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>9.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>1.39</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>1.42</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="K16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V16" t="n">
         <v>3.4</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.12</v>
       </c>
       <c r="X16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA16" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>80</v>
-      </c>
       <c r="AB16" t="n">
-        <v>9.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.89</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.32</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>22</v>
-      </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="AO18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>2.12</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>2.32</v>
+        <v>3.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.43</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="R19" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>2.38</v>
+        <v>1.79</v>
       </c>
       <c r="U19" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
         <v>1.89</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>17.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>9.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.38</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.42</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>3.25</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.59</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>5.8</v>
+        <v>2.46</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="P20" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>2.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>3.35</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.11</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.800000000000001</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>12.5</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AC20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
         <v>13</v>
       </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>42</v>
-      </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>510</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AM20" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.06</v>
+        <v>2.82</v>
       </c>
       <c r="G21" t="n">
-        <v>2.16</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.53</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.06</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.56</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="W22" t="n">
         <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
         <v>14.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AG22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN22" t="n">
         <v>65</v>
       </c>
-      <c r="AN22" t="n">
-        <v>29</v>
-      </c>
       <c r="AO22" t="n">
-        <v>10.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>2.54</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>2.36</v>
       </c>
       <c r="O23" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
-        <v>1.92</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>2.44</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="W23" t="n">
-        <v>1.89</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="n">
         <v>22</v>
       </c>
-      <c r="Y23" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>24</v>
-      </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="AJ23" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO23" t="n">
         <v>55</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,1475 +3623,125 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.98</v>
       </c>
       <c r="G24" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>2.64</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="O24" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="T24" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="U24" t="n">
-        <v>1.74</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="X24" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Sporting Gijon</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Scottish Championship</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Ross Co</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Partick</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X26" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Penybont FC</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X27" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>The New Saints</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Colwyn Bay</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>11</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Haverfordwest County</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Briton Ferry Llansawel</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X29" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Barry Town Utd</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Llanelli Town</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>19</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Caernarfon Town</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Connahs Quay</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Flint Town United</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Bala Town</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X34" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO34" t="n">
         <v>28</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>1.06</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>1.08</v>
       </c>
       <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>840</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.46</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>970</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -880,22 +880,22 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,114 +923,114 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zawisza Bydgoszcz</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>2.34</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.56</v>
       </c>
       <c r="N4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.02</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.03</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>6.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,105 +1058,105 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.13</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>800</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.19</v>
+        <v>2.46</v>
       </c>
       <c r="I5" t="n">
-        <v>800</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.01</v>
       </c>
-      <c r="K5" t="n">
-        <v>800</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.02</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1177,13 +1177,13 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:05:05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>1.03</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="H6" t="n">
+        <v>110</v>
+      </c>
+      <c r="I6" t="n">
+        <v>360</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" t="n">
+        <v>26</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8.6</v>
       </c>
-      <c r="I6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="AH6" t="n">
         <v>46</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S6" t="n">
-        <v>50</v>
-      </c>
-      <c r="T6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ6" t="n">
-        <v>350</v>
+        <v>4.6</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Buriram Utd</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>1.05</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.11</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>24</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>1.16</v>
+        <v>2.38</v>
       </c>
       <c r="O7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.8</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>460</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
         <v>34</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S7" t="n">
-        <v>130</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>850</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>850</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.06</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H8" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>140</v>
-      </c>
-      <c r="J8" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>19</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>30</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.7</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
         <v>90</v>
       </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
-      </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I9" t="n">
         <v>5.7</v>
       </c>
-      <c r="I9" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.54</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>7.8</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>460</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.56</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>1.41</v>
       </c>
       <c r="J10" t="n">
-        <v>2.82</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>2.42</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.66</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>1.43</v>
+        <v>2.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.15</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>6.6</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>3.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
         <v>27</v>
       </c>
-      <c r="AA10" t="n">
-        <v>960</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>130</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,108 +1868,108 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>2.16</v>
       </c>
       <c r="H11" t="n">
-        <v>2.08</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="S11" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1987,13 +1987,13 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>3.85</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2.04</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>2.06</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="V12" t="n">
-        <v>1.31</v>
+        <v>1.94</v>
       </c>
       <c r="W12" t="n">
-        <v>1.86</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.8</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK13" t="n">
         <v>46</v>
       </c>
-      <c r="AF13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="J14" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="O14" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="P14" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>20</v>
-      </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ14" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.9</v>
+        <v>2.84</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
-        <v>1.7</v>
+        <v>2.96</v>
       </c>
       <c r="I15" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.89</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V15" t="n">
-        <v>2.34</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="n">
         <v>17</v>
       </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>46</v>
       </c>
-      <c r="AG15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>160</v>
-      </c>
       <c r="AK15" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.4</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.39</v>
+        <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>3.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>3.4</v>
+        <v>1.77</v>
       </c>
       <c r="W16" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF16" t="n">
         <v>27</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>90</v>
-      </c>
       <c r="AG16" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.9</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.06</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>2.54</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,935 +2813,125 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2.1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="R18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.12</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.52</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
         <v>13</v>
       </c>
-      <c r="Z18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
         <v>36</v>
       </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>30</v>
-      </c>
       <c r="AO18" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Audace Cerignola</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Potenza</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Ascoli</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Ternana</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>380</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Sporting Gijon</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Scottish Championship</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ross Co</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Partick</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X23" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO24" t="n">
         <v>28</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,114 +788,114 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.06</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>1.08</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>13.5</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>840</v>
+        <v>2.56</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="S3" t="n">
-        <v>1.35</v>
+        <v>30</v>
       </c>
       <c r="T3" t="n">
-        <v>2.46</v>
+        <v>5.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>710</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>650</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>870</v>
+        <v>230</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>650</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="n">
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>990</v>
+        <v>160</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>2.46</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1.29</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>1.31</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.34</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.36</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>3.7</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.08</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.5</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>42</v>
+        <v>5.3</v>
       </c>
       <c r="T4" t="n">
-        <v>6.4</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.16</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>4.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="Z4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="n">
         <v>90</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN4" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>1.41</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>2.14</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.18</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.36</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>3.65</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.08</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>2.56</v>
       </c>
       <c r="R5" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
-        <v>55</v>
+        <v>6.8</v>
       </c>
       <c r="T5" t="n">
-        <v>6.2</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.16</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.64</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>3.35</v>
       </c>
       <c r="X5" t="n">
-        <v>2.78</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>100</v>
+        <v>5.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>110</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:05:05</t>
+          <t>14:30:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.03</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>1.04</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>110</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>360</v>
+        <v>1.01</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V6" t="n">
+        <v>100</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
         <v>34</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W6" t="n">
-        <v>26</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF6" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>5.9</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.05</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="S7" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="V8" t="n">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
         <v>36</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>90</v>
-      </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.800000000000001</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>9.800000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>1.41</v>
+        <v>3.85</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>2.58</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>2.96</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>2.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>3.4</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.66</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>8.4</v>
       </c>
       <c r="Y10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>34</v>
-      </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
-        <v>2.16</v>
+        <v>2.92</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.04</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.56</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>24</v>
       </c>
-      <c r="AB12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>18</v>
-      </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
         <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN12" t="n">
         <v>60</v>
       </c>
-      <c r="AN12" t="n">
-        <v>29</v>
-      </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>2.48</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>2.34</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>3.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>7.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="n">
         <v>23</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AG13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="n">
         <v>110</v>
       </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>200</v>
-      </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AO13" t="n">
-        <v>480</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,666 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="G14" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
-        <v>3.95</v>
+        <v>2.78</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.68</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="U14" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
         <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Sporting Gijon</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Scottish Championship</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ross Co</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Partick</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Malzenice</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>9.199999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>2.62</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.12</v>
+        <v>5.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.6</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>1.02</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>2.08</v>
       </c>
       <c r="T3" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>120</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>230</v>
+        <v>7.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.29</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>1.31</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>16</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,94 +961,94 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>1.23</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.82</v>
       </c>
       <c r="S4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
         <v>5.3</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AG4" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
         <v>23</v>
       </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AL4" t="n">
         <v>30</v>
       </c>
-      <c r="AH4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>230</v>
-      </c>
       <c r="AM4" t="n">
-        <v>470</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.39</v>
+        <v>2.84</v>
       </c>
       <c r="G5" t="n">
-        <v>1.41</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>2.18</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>1.39</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>3.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64</v>
+        <v>1.09</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.56</v>
+        <v>11</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="S5" t="n">
-        <v>6.8</v>
+        <v>50</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>5.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>3.35</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>620</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AI5" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>630</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:45</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,34 +1231,34 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="R6" t="n">
-        <v>9.800000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="S6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.1</v>
       </c>
-      <c r="T6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V6" t="n">
-        <v>100</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>2.76</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1270,55 +1270,55 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.15</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,72 +1328,72 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>1.22</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>1.23</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>5.2</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.53</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1420,40 +1420,40 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.95</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.31</v>
-      </c>
       <c r="M8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.04</v>
       </c>
-      <c r="N8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>20</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>3.95</v>
       </c>
       <c r="U8" t="n">
-        <v>2.6</v>
+        <v>1.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AH8" t="n">
-        <v>14.5</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>520</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,800 +1598,125 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>2.96</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>2.78</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AI9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK9" t="n">
         <v>38</v>
       </c>
-      <c r="AA9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Ascoli</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Ternana</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sporting Gijon</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Scottish Championship</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Ross Co</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Partick</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO14" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,261 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>2.16</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.35</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>2.34</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
